--- a/documentation/db_entries.xlsx
+++ b/documentation/db_entries.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\E-commerce\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3852"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>recipe</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -425,18 +428,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -450,12 +453,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -472,12 +475,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -491,12 +494,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>

--- a/documentation/db_entries.xlsx
+++ b/documentation/db_entries.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\E-commerce\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3852"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>recipe</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -426,20 +429,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -453,12 +456,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -474,13 +477,16 @@
       <c r="E16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -494,17 +500,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1</v>
       </c>

--- a/documentation/db_entries.xlsx
+++ b/documentation/db_entries.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\E-commerce\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3852"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="216">
   <si>
     <t>recipe</t>
   </si>
@@ -74,23 +74,659 @@
     <t>order</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Jalapeno Popper Grilled Cheese Sandwich</t>
+  </si>
+  <si>
+    <t>http://static.food2fork.com/Jalapeno2BPopper2BGrilled2BCheese2BSandwich2B12B500fd186186.jpg</t>
+  </si>
+  <si>
+    <t>jalapeno peppers</t>
+  </si>
+  <si>
+    <t>sourdough bread</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>cream cheese</t>
+  </si>
+  <si>
+    <t>cheddar cheese</t>
+  </si>
+  <si>
+    <t>tortilla chips</t>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>tablespoon</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>cut in half lengthwise and seeded</t>
+  </si>
+  <si>
+    <t>room temperature</t>
+  </si>
+  <si>
+    <t>shredded</t>
+  </si>
+  <si>
+    <t>crumbled</t>
+  </si>
+  <si>
+    <t>1. Place the peppers on a baking sheet with the cut side facing down.</t>
+  </si>
+  <si>
+    <t>2. Place the baking sheet on the top shelf in the oven and broil until the outer layer of the skin has blackened, about 8-14 minutes.</t>
+  </si>
+  <si>
+    <t>3. Place the peppers in a zip-lock bag or other sealable container, seal and let them cool until you can handle them, about 20 minutes.</t>
+  </si>
+  <si>
+    <t>4. Remove the skins from the peppers. The skins should easily "pinch" off.</t>
+  </si>
+  <si>
+    <t>5. Butter the outside of each slice of bread and spread the cream cheese on the inside. Sprinkle half of the cheese on the cream cheese of one slice of bread, top with the jalapenos, crumbled tortilla chips, the remaining cheese and finally the other slice of bread.</t>
+  </si>
+  <si>
+    <t>6. Heat a non-stick pan over medium heat.</t>
+  </si>
+  <si>
+    <t>7. Add the sandwich and grill until golden brown and the cheese has melted, about 2-4 minutes per side.</t>
+  </si>
+  <si>
+    <t>Perfect Iced Coffee</t>
+  </si>
+  <si>
+    <t>http://static.food2fork.com/icedcoffee5766.jpg</t>
+  </si>
+  <si>
+    <t>2 to 3</t>
+  </si>
+  <si>
+    <t>ground coffee</t>
+  </si>
+  <si>
+    <t>pound</t>
+  </si>
+  <si>
+    <t>rich roast</t>
+  </si>
+  <si>
+    <t>cold water</t>
+  </si>
+  <si>
+    <t>quarts</t>
+  </si>
+  <si>
+    <t>half-and-half</t>
+  </si>
+  <si>
+    <t>healthy splash</t>
+  </si>
+  <si>
+    <t>sweetened condensed milk</t>
+  </si>
+  <si>
+    <t>In a large container, mix ground coffee with water. Cover and allow to sit at room temperature eight hours or overnight. </t>
+  </si>
+  <si>
+    <t>Line a fine mesh strainer with cheesecloth and set over a pitcher or other container. Pour coffee/water mixture through the strainer, allowing all liquid to run through. Discard grounds. </t>
+  </si>
+  <si>
+    <t>Place coffee liquid in the fridge and allow to cool. Use as needed.</t>
+  </si>
+  <si>
+    <t>To make iced coffee, pack a glass full of ice cubes. Fill glass 2/3 full with coffee liquid. Add healthy splash of half-and-half. Add 2-3 tablespoons sweetened condensed milk (can use plain sugar instead) and stir to combine. Taste and adjust half-and-half and/or sweetened condensed milk as needed.</t>
+  </si>
+  <si>
+    <t>Crash Hot Potatoes</t>
+  </si>
+  <si>
+    <t>http://static.food2fork.com/CrashHotPotatoes5736.jpg</t>
+  </si>
+  <si>
+    <t>new potatoes</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>or other small round potatoes</t>
+  </si>
+  <si>
+    <t>olive oil</t>
+  </si>
+  <si>
+    <t>kosher salt</t>
+  </si>
+  <si>
+    <t>to taste</t>
+  </si>
+  <si>
+    <t>black pepper</t>
+  </si>
+  <si>
+    <t>rosemary</t>
+  </si>
+  <si>
+    <t>Bring a pot of salted water to a boil. Add in as many potatoes as you wish to make and cook them until they are fork-tender.</t>
+  </si>
+  <si>
+    <t>On a sheet pan, generously drizzle olive oil. Place tender potatoes on the cookie sheet leaving plenty of room between each potato.</t>
+  </si>
+  <si>
+    <t>With a potato masher, gently press down each potato until it slightly mashes, rotate the potato masher 90 degrees and mash again. Brush the tops of each crushed potato generously with more olive oil.</t>
+  </si>
+  <si>
+    <t>Sprinkle potatoes with kosher salt, fresh ground black pepper and fresh chopped rosemary (or chives or thyme or whatever herb you have available.)</t>
+  </si>
+  <si>
+    <t>Bake in a 450 degree oven for 20-25 minutes until golden brown.</t>
+  </si>
+  <si>
+    <t>Stovetop Avacod Mac and Cheese</t>
+  </si>
+  <si>
+    <t>http://static.food2fork.com/avocadomacandcheesedc99.jpg</t>
+  </si>
+  <si>
+    <t>elbow macoroni</t>
+  </si>
+  <si>
+    <t>garlic cloves</t>
+  </si>
+  <si>
+    <t>avocados</t>
+  </si>
+  <si>
+    <t>fresh lime juice</t>
+  </si>
+  <si>
+    <t>fresh cilantro</t>
+  </si>
+  <si>
+    <t>salt and pepper</t>
+  </si>
+  <si>
+    <t>all-purpose flour</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>fresh avocado chunks</t>
+  </si>
+  <si>
+    <t>ounces</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>minced</t>
+  </si>
+  <si>
+    <t>peeled and pitted</t>
+  </si>
+  <si>
+    <t>tablespoons</t>
+  </si>
+  <si>
+    <t>cups</t>
+  </si>
+  <si>
+    <t>pepper jack cheese</t>
+  </si>
+  <si>
+    <t>for garnish</t>
+  </si>
+  <si>
+    <t>Bring water to a boil in a large pot. Salt the water and add in macaroni. Stir and cook until Al Dente, about 8-10 minutes. Drain and set aside.</t>
+  </si>
+  <si>
+    <t>While the pasta is cooking, make the avocado sauce by placing the garlic, avocados, lime juice, cilantro, salt and pepper into a food processor or blender. Process until smooth and creamy. Set aside.</t>
+  </si>
+  <si>
+    <t>To make the cheese sauce, place butter in a small saucepan and heat over medium heat. When butter is melted, whisk in flour to create a paste. Whisk in milk until smooth. Stir with a wooden spoon until the sauce starts to thicken. Add in Pepper Jack cheese and stir until cheese is melted and sauce is creamy.</t>
+  </si>
+  <si>
+    <t>Place macaroni in a large bowl. Pour the avocado sauce over the macaroni and stir until well coated. Add the cheese sauce and stir until macaroni is coated and creamy. Season with salt and pepper, to taste. Serve warm. Garnish with fresh avocado chunks, if desired.</t>
+  </si>
+  <si>
+    <t>http://static.food2fork.com/Buffalo2BChicken2BGrilled2BCheese2BSandwich2B5002B4983f2702fe4.jpg</t>
+  </si>
+  <si>
+    <t>Buffalo Chicke Grilled Cheese Sandwich</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>cooked shredded</t>
+  </si>
+  <si>
+    <t>hot sauce</t>
+  </si>
+  <si>
+    <t>mayo</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>celery</t>
+  </si>
+  <si>
+    <t>green or red onion</t>
+  </si>
+  <si>
+    <t>blue cheese</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>slices</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>grated</t>
+  </si>
+  <si>
+    <t>sliced</t>
+  </si>
+  <si>
+    <t>sliced or diced</t>
+  </si>
+  <si>
+    <t>room temperature, crumbled</t>
+  </si>
+  <si>
+    <t>room temperature, grated</t>
+  </si>
+  <si>
+    <t>1. Mix the chicken, hot sauce, mayo, carrot, celery and onion in a small bowl.</t>
+  </si>
+  <si>
+    <t>2. Butter the outside of each slice of bread, sprinkle half of the cheeses on the inside of one slice of bread, top with the buffalo chicken salad, the remaining cheese and finally the other slice of bread.</t>
+  </si>
+  <si>
+    <t>3. Heat a non-stick pan over medium heat.</t>
+  </si>
+  <si>
+    <t>4. Add the sandwich and grill until golden brown and the cheese has melted, about 2-4 minutes per side.</t>
+  </si>
+  <si>
+    <t>Cinnamon Rolls</t>
+  </si>
+  <si>
+    <t>d9a5e8</t>
+  </si>
+  <si>
+    <t>http://static.food2fork.com/333323997_04bd8d6c53da11.jpg</t>
+  </si>
+  <si>
+    <t>whole milk</t>
+  </si>
+  <si>
+    <t>vegetable oil</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>active dry yeast</t>
+  </si>
+  <si>
+    <t>ounce</t>
+  </si>
+  <si>
+    <t>baking powder</t>
+  </si>
+  <si>
+    <t>baking soda</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>MAPLE FROSTING:</t>
+  </si>
+  <si>
+    <t>cinnamon</t>
+  </si>
+  <si>
+    <t>powdered sugar</t>
+  </si>
+  <si>
+    <t>maple flavoring</t>
+  </si>
+  <si>
+    <t>melted butter</t>
+  </si>
+  <si>
+    <t>brewed coffee</t>
+  </si>
+  <si>
+    <t>quart</t>
+  </si>
+  <si>
+    <t>teaspoon</t>
+  </si>
+  <si>
+    <t>plenty</t>
+  </si>
+  <si>
+    <t>generous sprinkling</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>teaspoons</t>
+  </si>
+  <si>
+    <t>For the dough, heat the milk, vegetable oil, and sugar in a medium saucepan over medium heat to just below a boil. Set aside and cool to warm. Sprinkle the yeast on top and let it sit on the milk for 1 minute.</t>
+  </si>
+  <si>
+    <t>Add 8 cups of the flour. Stir until just combined, then cover with a clean kitchen towel, and set aside in a relatively warm place for 1 hour. After 1 hour, remove the towel and add the baking powder, baking soda, salt, and the remaining 1 cup flour. Stir thoroughly to combine. Use the dough right away, or place in a mixing bowl and refrigerate for up to 3 days, punching down the dough if it rises to the top of the bowl. (Note: dough is easier to work with if it’s been chilled for at least an hour or so beforehand.)</t>
+  </si>
+  <si>
+    <t>Preheat the oven to 375°F</t>
+  </si>
+  <si>
+    <t>To assemble the rolls, remove half the dough from the pan/bowl. On a floured baking surface, roll the dough into a large rectangle, about 30 x 10 inches. The dough should be rolled very thin.</t>
+  </si>
+  <si>
+    <t>To make the filling, pour 3/4 cup to 1 cup of the melted butter over the surface of the dough. Use your fingers to spread the butter evenly. Generously sprinkle half of the ground cinnamon and 1 cup of the sugar over the butter. Don’t be afraid to drizzle on more butter or more sugar! Gooey is the goal.</t>
+  </si>
+  <si>
+    <t>Now, beginning at the end farthest from you, roll the rectangle tightly towards you. Use both hands and work slowly, being careful to keep the roll tight. Don’t worry if the filling oozes as you work; that just means the rolls are going to be divine. When you reach the end, pinch the seam together and flip the roll so that the seam is face down. When you’re finished, you’ll wind up with one long buttery, cinnamony, sugary, gooey log.</t>
+  </si>
+  <si>
+    <t>Slip a cutting board underneath the roll and with a sharp knife, make 1/2-inch slices. One “log “will produce 20 to 25 rolls. Pour a couple of teaspoons of melted butter into disposable foil cake pans and swirl to coat. Place the sliced rolls in the pans, being careful not to overcrowd. (Each pan will hold 7 to 9 rolls.)</t>
+  </si>
+  <si>
+    <t>Repeat the rolling/sugar/butter process with the other half of the dough and more pans. Preheat the oven to 375°F. Cover all the pans with a kitchen towel and set aside to rise on the countertop for at least 20 minutes before baking. Remove the towel and bake for 15 to 18 minutes, until golden brown. Don’t allow the rolls to become overly brown</t>
+  </si>
+  <si>
+    <t>While the rolls are baking, make the maple icing: In a large bowl, whisk together the powdered sugar, milk, butter, coffee, and salt. Splash in the maple flavoring. Whisk until very smooth. Taste and add in more maple, sugar, butter, or other ingredients as needed until the icing reaches the desired consistency. The icing should be somewhat thick but still very pourable</t>
+  </si>
+  <si>
+    <t>Remove pans from the oven. Immediately drizzle icing over the top. Be sure to get it all around the edges and over the top. As they sit, the rolls will absorb some of the icing’s moisture and flavor. They only get better with time… not that they last for more than a few seconds. Make them for a friend today! It’ll seal the relationship for life. I promise.</t>
+  </si>
+  <si>
+    <t>http://static.food2fork.com/best_pizza_dough_recipe1b20.jpg</t>
+  </si>
+  <si>
+    <t>Best Pizza Dough Ever</t>
+  </si>
+  <si>
+    <t>4 &amp; 1/2</t>
+  </si>
+  <si>
+    <t>1 &amp; 3/4</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>instant yeast</t>
+  </si>
+  <si>
+    <t>semolina flour or cornmeal</t>
+  </si>
+  <si>
+    <t>for dusting</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>1. Stir together the flour, salt, and instant yeast in a 4-quart bowl (or in the bowl of an electric mixer). With a large metal spoon, stir in the oil and the cold water until the flour is all absorbed (or mix on low speed with the paddle attachment), If you are mixing by hand, repeatedly dip one of your hands or the metal spoon into cold water and use it, much like a dough hook, to work the dough vigorously into a smooth mass while rotating the bowl in a circular motion with the other hand. Reverse the circular motion a few times to develop the gluten further. Do this for 5 to 7 minutes, or until the dough is smooth and the ingredients are evenly distributed. If you are using an electric mixer, switch to the dough hook and mix on medium speed for 5 to 7 minutes, or as long as it takes to create a smooth, sticky dough. The dough should clear the sides of the bowl but stick to the bottom of the bowl. If the dough is too wet and doesn't come off the sides of the bowl, sprinkle in some more flour just until it clears the sides. If it clears the bottom of the bowl, dribble in a tea- spoon or two of cold water. The finished dough will be springy, elastic, and sticky, not just tacky, and register 50 to 55F.</t>
+  </si>
+  <si>
+    <t>2. Sprinkle flour on the counter and transfer the dough to the counter. Prepare a sheet pan by lining it with baking parchment and misting the parchment with spray oil (or lightly oil the parchment). Using a metal dough scraper, cut the dough into 6 equal pieces (or larger if you are comfortable shaping large pizzas), You can dip the scraper into the water between cuts to keep the dough from sticking to it, Sprinkle flour over the dough. Make sure your hands are dry and then flour them. Lift each piece and gently round it into a ball. If the dough sticks to your hands, dip your hands into the flour again. Transfer the dough balls to the sheet pan, Mist the dough generously with spray oil and slip the pan into a food-grade plastic bag.</t>
+  </si>
+  <si>
+    <t>3. Put the pan into the refrigerator overnight to rest the dough, or keep for up to 3 days. (Note: If you want to save some of the dough for future baking, you can store the dough balls in a zippered freezer bag. Dip each dough ball into a bowl that has a few tablespoons of oil in it, rolling the dough in the oil, and then put each ball into a separate bag. You can place the bags into the freezer for up to 3 months. Transfer them to the refrigerator the day before you plan to make pizza.)</t>
+  </si>
+  <si>
+    <t>4. On the day you plan to make the pizza, remove the desired number of dough balls from the refrigerator 2 hours before making the pizza. Before letting the dough rest at room temperature for 2 hours, dust the counter with flour, and then mist the counter with spray oil. Place the dough balls on top of the floured counter and sprinkle them with flour; dust your hands with flour. Gently press the dough into flat disks about 1/2 inch thick and 5 inches in diameter. Sprinkle the dough with flour, mist it again with spray oil, and cover the dough loosely with plastic wrap or a food-grade plastic bag. Now let rest for 2 hours.</t>
+  </si>
+  <si>
+    <t>5. At least 45 minutes before making the pizza, place a baking stone either on the floor of the oven (for gas ovens), or on a rack in the lower third of the oven. Heat the oven as hot as possible, up to 800F (most home ovens will go only to 500 to 550F, but some will go higher). If you do not have a baking stone, you can use the back of a sheet pan, but do not preheat the pan.</t>
+  </si>
+  <si>
+    <t>6. Generously dust a peel or the back of a sheet pan with semolina flour or cornmeal. Make the pizzas one at a time. Dip your hands, including the backs of your hands and knuckles, in flour and lift I piece of dough by getting under it with a pastry scraper. Very gently lay the dough across your fists and carefully stretch it by bouncing the dough in a circular motion on your hands, carefully giving it a little stretch with each bounce. If it begins to stick to your hands, lay it down on the floured counter and reflour your hands, then continue shaping it. Once the dough has expanded outward, move to a full toss as shown on page 208. If you have trouble tossing the dough, or if the dough keeps springing back, let it rest for 5 to 20 minutes so the gluten can relax, and try again. You can also resort to using a rolling pin, though this isn't as effective as the toss method.</t>
+  </si>
+  <si>
+    <t>7. When the dough is stretched out to your satisfaction (about 9 to 12 inches in diameter for a 6-ounce piece of dough), lay it on the peel or pan, making sure there is enough semolina flour or cornmeal to allow it to slide. Lightly top it with sauce and then with your other top- pings, remembering that the best pizzas are topped with a less-is-more philosophy. The American "kitchen sink" approach is counterproductive, as it makes the crust more difficult to bake. A few, usually no more than 3 or 4 toppings, including sauce and cheese is sufficient.</t>
+  </si>
+  <si>
+    <t>8. Slide the topped pizza onto the stone (or bake directly on the sheet pan) and close the door. Wait 2 minutes, then take a peek. If it needs to be rotated 180 degrees for even baking, do so. The pizza should take about 5 to 8 minutes to bake. If the top gets done before the bottom, you will need to move the stone to a lower self before the next round. if the bottom crisps before the cheese caramelizes, then you will need to raise the stone for subsequent bakes.</t>
+  </si>
+  <si>
+    <t>9. Remove the pizza from the oven and transfer to a cutting board. Wait 3 to 5 minutes before slicing and serving, to allow the cheese to set slightly</t>
+  </si>
+  <si>
+    <t>Magic Sauce</t>
+  </si>
+  <si>
+    <t>http://static.food2fork.com/magic_sauce_recipeece9.jpg</t>
+  </si>
+  <si>
+    <t>extra-virgin olive oil</t>
+  </si>
+  <si>
+    <t>rosemary leaves</t>
+  </si>
+  <si>
+    <t>thyme leaves</t>
+  </si>
+  <si>
+    <t>oregano leaves</t>
+  </si>
+  <si>
+    <t>paprika</t>
+  </si>
+  <si>
+    <t>bay leaf</t>
+  </si>
+  <si>
+    <t>red pepper flakes</t>
+  </si>
+  <si>
+    <t>sea salt</t>
+  </si>
+  <si>
+    <t>lemon juice</t>
+  </si>
+  <si>
+    <t>medium cloves of garlic</t>
+  </si>
+  <si>
+    <t>smashed into paste</t>
+  </si>
+  <si>
+    <t>pinch</t>
+  </si>
+  <si>
+    <t>sweet paprika</t>
+  </si>
+  <si>
+    <t>well-crumbled</t>
+  </si>
+  <si>
+    <t>fine grain</t>
+  </si>
+  <si>
+    <t>Gently warm the olive oil over medium-low heat in a skillet or pan, until it is just hot. When hot remove from heat.</t>
+  </si>
+  <si>
+    <t>While the oil is heating, lightly pound the rosemary, thyme, and oregano in a mortar and pestle.</t>
+  </si>
+  <si>
+    <t>Stir the paprika, garlic, bay leaf, red pepper flakes, and salt into the oil. Then add the bruised herbs and lemon juice.</t>
+  </si>
+  <si>
+    <t>You can use this now, but know - the oil just gets better as it ages over a few days. Keep it in a refrigerator for up to a week/ten days-ish. It thickens up when cold, so if you need it in a liquid state, place it in the sun or in a warm place for a few minutes.</t>
+  </si>
+  <si>
+    <t>Spicy Dr. Pepper Shredded Pork</t>
+  </si>
+  <si>
+    <t>http://static.food2fork.com/5551711173_dc42f7fc4b_zbd8a.jpg</t>
+  </si>
+  <si>
+    <t>large onion</t>
+  </si>
+  <si>
+    <t>pork shoulder ("pork butt")</t>
+  </si>
+  <si>
+    <t>5 to 7 pounds</t>
+  </si>
+  <si>
+    <t>salt and freshly ground black pepper</t>
+  </si>
+  <si>
+    <t>chipotle peppers in adobo sauce</t>
+  </si>
+  <si>
+    <t>cans</t>
+  </si>
+  <si>
+    <t>brown sugar</t>
+  </si>
+  <si>
+    <t>Dr. Pepper</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>Preheat oven to 300 degrees.</t>
+  </si>
+  <si>
+    <t>Peel the onion and cut it into wedges. Lay them in the bottom of a large dutch oven.</t>
+  </si>
+  <si>
+    <t>Generously salt and pepper the pork roast, then set it on top of the onions in the pan.</t>
+  </si>
+  <si>
+    <t>Pour the can of chipotle peppers over the pork (include the sauce.) Pour in both cans of Dr Pepper. Add brown sugar to the juice and stir in</t>
+  </si>
+  <si>
+    <t>Place lid tightly on pot, then set pot in the oven. Cook for at least six hours, turning roast two or three times during the cooking process. Check meat after six hours; it should be absolutely falling apart (use two forks to test.) If it's not falling apart, return to the oven for another hour. </t>
+  </si>
+  <si>
+    <t>Remove meat from pot and place on a cutting board or other work surface. Use two forks to shred meat, discarding large pieces of fat. Strain as much of the fat off the top of the cooking liquid as you can and discard it. Return the shredded meat to the cooking liquid, and keep warm until ready to serve. (You can also refrigerate the meat and liquid separately, then remove hardened fat once it's cold. Then heat up the liquid on the stovetop and return the meat to the liquid to warm up.</t>
+  </si>
+  <si>
+    <t>Serve on warm flour tortillas. Top with shredded lettuce, diced tomatoes, grated cheese, avocado slices, salsa, and whatever else you'd like.</t>
+  </si>
+  <si>
+    <t>Parmesan Roasted Potatoes</t>
+  </si>
+  <si>
+    <t>http://static.food2fork.com/ParmesanRoastedPotatoes11985a.jpg</t>
+  </si>
+  <si>
+    <t>cubed Yukon Gold potatoes</t>
+  </si>
+  <si>
+    <t>Olive Oil</t>
+  </si>
+  <si>
+    <t>garlic salt</t>
+  </si>
+  <si>
+    <t>pepper</t>
+  </si>
+  <si>
+    <t>parmeshan cheese</t>
+  </si>
+  <si>
+    <t>1. Preheat your oven to 425 degrees.</t>
+  </si>
+  <si>
+    <t>2. Place the cubed potatoes onto a sprayed baking sheet or parchment lined baking dish dish.</t>
+  </si>
+  <si>
+    <t>3. Pile on the olive oil, garlic salt, salt, paprika, pepper and Parmesan cheese. Using your fingers, or a spoon if you feel inclined, toss the potatoes and carefully mix everything around until the seasonings coat each potato.</t>
+  </si>
+  <si>
+    <t>4. Transfer the baking vessel into the oven and bake for 15 minutes. Remove from the oven and toss the potatoes with a pair of tongs. Put the baking dish back into the oven and bake for 10 minutes more. Remove the baking sheet and give them another toss and place them back in the oven and roast until they are golden and crispy.</t>
+  </si>
+  <si>
+    <t>5. Season with an little dusting of sea salt and extra parmesan cheese and serve.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF42403E"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.45"/>
+      <color rgb="FF505050"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF505050"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,13 +746,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,46 +1083,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>35382</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>47024</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>47319</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>54384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>35171</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>47746</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="4">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>47899</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="4">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>47042</v>
+      </c>
+      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="4">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>713134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="4">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
@@ -478,50 +1280,1879 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>35382</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>35382</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19">
+        <v>35382</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
+        <v>35382</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21">
+        <v>35382</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <v>35382</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24">
+        <v>47024</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25">
+        <v>47024</v>
+      </c>
+      <c r="C25" s="4">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26">
+        <v>47024</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27">
+        <v>47024</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29">
+        <v>47319</v>
+      </c>
+      <c r="C29" s="4">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30">
+        <v>47319</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31">
+        <v>47319</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32">
+        <v>47319</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33">
+        <v>47319</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35">
+        <v>54384</v>
+      </c>
+      <c r="C35" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36">
+        <v>54384</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37">
+        <v>54384</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38">
+        <v>54384</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39">
+        <v>54384</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40">
+        <v>54384</v>
+      </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41">
+        <v>54384</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42">
+        <v>54384</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43">
+        <v>54384</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44">
+        <v>54384</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45">
+        <v>54384</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47">
+        <v>35171</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48">
+        <v>35171</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49">
+        <v>35171</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50">
+        <v>35171</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51">
+        <v>35171</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52">
+        <v>35171</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53">
+        <v>35171</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54">
+        <v>35171</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55">
+        <v>35171</v>
+      </c>
+      <c r="C55" s="4">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56">
+        <v>35171</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="4">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="4">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="4">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="D75" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77">
+        <v>47746</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78">
+        <v>47746</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79">
+        <v>47746</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80">
+        <v>47746</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81">
+        <v>47746</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" t="s">
+        <v>85</v>
+      </c>
+      <c r="F81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82">
+        <v>47746</v>
+      </c>
+      <c r="D82" t="s">
+        <v>153</v>
+      </c>
+      <c r="F82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84">
+        <v>47899</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>167</v>
+      </c>
+      <c r="E84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85">
+        <v>47899</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86">
+        <v>47899</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87">
+        <v>47899</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88">
+        <v>47899</v>
+      </c>
+      <c r="C88" s="4">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>179</v>
+      </c>
+      <c r="E88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89">
+        <v>47899</v>
+      </c>
+      <c r="C89" s="4">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90">
+        <v>47899</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91">
+        <v>47899</v>
+      </c>
+      <c r="D91" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92">
+        <v>47899</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>174</v>
+      </c>
+      <c r="E92" t="s">
+        <v>132</v>
+      </c>
+      <c r="F92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93">
+        <v>47899</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>175</v>
+      </c>
+      <c r="E93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95">
+        <v>47042</v>
+      </c>
+      <c r="C95" s="4">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>188</v>
+      </c>
+      <c r="E95" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96">
+        <v>47042</v>
+      </c>
+      <c r="C96" s="4">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>189</v>
+      </c>
+      <c r="E96" t="s">
+        <v>57</v>
+      </c>
+      <c r="F96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97">
+        <v>47042</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>192</v>
+      </c>
+      <c r="E97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98">
+        <v>47042</v>
+      </c>
+      <c r="C98" s="4">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>195</v>
+      </c>
+      <c r="E98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99">
+        <v>47042</v>
+      </c>
+      <c r="C99" s="4">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>194</v>
+      </c>
+      <c r="E99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100">
+        <v>47042</v>
+      </c>
+      <c r="D100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102">
+        <v>713134</v>
+      </c>
+      <c r="C102" s="4">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>206</v>
+      </c>
+      <c r="E102" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103">
+        <v>713134</v>
+      </c>
+      <c r="C103" s="4">
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>207</v>
+      </c>
+      <c r="E103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104">
+        <v>713134</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>208</v>
+      </c>
+      <c r="E104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105">
+        <v>713134</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>124</v>
+      </c>
+      <c r="E105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106">
+        <v>713134</v>
+      </c>
+      <c r="C106" s="4">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>171</v>
+      </c>
+      <c r="E106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107">
+        <v>713134</v>
+      </c>
+      <c r="C107" s="4">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>209</v>
+      </c>
+      <c r="E107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108">
+        <v>713134</v>
+      </c>
+      <c r="C108" s="4">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>210</v>
+      </c>
+      <c r="E108" t="s">
+        <v>84</v>
+      </c>
+      <c r="F108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
         <v>11</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B121" t="s">
         <v>6</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C121" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D121" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
         <v>14</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C135" s="4" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="136" spans="1:3" ht="28.5">
+      <c r="A136">
+        <v>35382</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="57">
+      <c r="A137">
+        <v>35382</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="57">
+      <c r="A138">
+        <v>35382</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="42.75">
+      <c r="A139">
+        <v>35382</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="114">
+      <c r="A140">
+        <v>35382</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="28.5">
+      <c r="A141">
+        <v>35382</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="42.75">
+      <c r="A142">
+        <v>35382</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75">
+      <c r="A144">
+        <v>47024</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C144" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75">
+      <c r="A145">
+        <v>47024</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C145" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75">
+      <c r="A146">
+        <v>47024</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C146" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.75">
+      <c r="A147">
+        <v>47024</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C147" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.75">
+      <c r="A149">
+        <v>47319</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15.75">
+      <c r="A150">
+        <v>47319</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C150" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75">
+      <c r="A151">
+        <v>47319</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C151" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.75">
+      <c r="A152">
+        <v>47319</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C152" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.75">
+      <c r="A153">
+        <v>47319</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C153" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A155">
+        <v>54384</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C155" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A156">
+        <v>54384</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C156" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A157">
+        <v>54384</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C157" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A158">
+        <v>54384</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C158" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="42.75">
+      <c r="A160">
+        <v>35171</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C160" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="85.5">
+      <c r="A161">
+        <v>35171</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C161" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="28.5">
+      <c r="A162">
+        <v>35171</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C162" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="42.75">
+      <c r="A163">
+        <v>35171</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C163" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15.75">
+      <c r="A165" t="s">
+        <v>115</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C165" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15.75">
+      <c r="A166" t="s">
+        <v>115</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C166" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15.75">
+      <c r="A167" t="s">
+        <v>115</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C167" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15.75">
+      <c r="A168" t="s">
+        <v>115</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C168" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15.75">
+      <c r="A169" t="s">
+        <v>115</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C169" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15.75">
+      <c r="A170" t="s">
+        <v>115</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C170" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15.75">
+      <c r="A171" t="s">
+        <v>115</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C171" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15.75">
+      <c r="A172" t="s">
+        <v>115</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C172" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15.75">
+      <c r="A173" t="s">
+        <v>115</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C173" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15.75">
+      <c r="A174" t="s">
+        <v>115</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C174" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" customHeight="1"/>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>47746</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C176" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A177">
+        <v>47746</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C177" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A178">
+        <v>47746</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A179">
+        <v>47746</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C179" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A180">
+        <v>47746</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C180" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A181">
+        <v>47746</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C181" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A182">
+        <v>47746</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C182" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A183">
+        <v>47746</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C183" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A184">
+        <v>47746</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C184" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>47899</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C186" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>47899</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C187" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>47899</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C188" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>47899</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C189" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15.75">
+      <c r="A191">
+        <v>47042</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C191" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15.75">
+      <c r="A192">
+        <v>47042</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C192" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15.75">
+      <c r="A193">
+        <v>47042</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C193" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15.75">
+      <c r="A194">
+        <v>47042</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C194" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15.75">
+      <c r="A195">
+        <v>47042</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C195" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15.75">
+      <c r="A196">
+        <v>47042</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C196" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15.75">
+      <c r="A197">
+        <v>47042</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C197" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>713134</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C199" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A200">
+        <v>713134</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C200" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A201">
+        <v>713134</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C201" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A202">
+        <v>713134</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C202" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A203">
+        <v>713134</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C203" s="4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/documentation/db_entries.xlsx
+++ b/documentation/db_entries.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\E-commerce\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3852"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -729,12 +729,18 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -750,7 +756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -768,6 +774,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1085,18 +1098,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1119,72 +1132,72 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>35382</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="10">
         <v>100</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>47024</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="10">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>47319</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="10">
         <v>100</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>54384</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="10">
         <v>100</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>35171</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="10">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1203,58 +1216,58 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>47746</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="10">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>47899</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="10">
         <v>100</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>47042</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="10">
         <v>100</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="11" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>713134</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="10">
         <v>100</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
         <v>205</v>
       </c>
     </row>
@@ -1283,159 +1296,183 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17">
+    <row r="17" spans="1:6">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9">
         <v>35382</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="10">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18">
+    <row r="18" spans="1:6">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9">
         <v>35382</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="10">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9">
         <v>35382</v>
       </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20">
+    <row r="20" spans="1:6">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9">
         <v>35382</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="10">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21">
+    <row r="21" spans="1:6">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9">
         <v>35382</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="10">
         <v>0.5</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22">
+    <row r="22" spans="1:6">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9">
         <v>35382</v>
       </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24">
+    <row r="23" spans="1:6">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9">
         <v>47024</v>
       </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25">
+    <row r="25" spans="1:6">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9">
         <v>47024</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="10">
         <v>8</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9">
         <v>47024</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27">
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9">
         <v>47024</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="B29">
         <v>47319</v>
       </c>
@@ -1452,7 +1489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="1:6">
       <c r="B30">
         <v>47319</v>
       </c>
@@ -1466,7 +1503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="1:6">
       <c r="B31">
         <v>47319</v>
       </c>
@@ -1477,7 +1514,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="1:6">
       <c r="B32">
         <v>47319</v>
       </c>
@@ -2498,128 +2535,133 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="28.5">
-      <c r="A136">
+    <row r="136" spans="1:3" ht="27.6">
+      <c r="A136" s="9">
         <v>35382</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C136" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="57">
-      <c r="A137">
+      <c r="C136" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="55.2">
+      <c r="A137" s="9">
         <v>35382</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="57">
-      <c r="A138">
+    <row r="138" spans="1:3" ht="55.2">
+      <c r="A138" s="9">
         <v>35382</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="42.75">
-      <c r="A139">
+    <row r="139" spans="1:3" ht="27.6">
+      <c r="A139" s="9">
         <v>35382</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="114">
-      <c r="A140">
+    <row r="140" spans="1:3" ht="96.6">
+      <c r="A140" s="9">
         <v>35382</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="28.5">
-      <c r="A141">
+    <row r="141" spans="1:3" ht="27.6">
+      <c r="A141" s="9">
         <v>35382</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="42.75">
-      <c r="A142">
+    <row r="142" spans="1:3" ht="41.4">
+      <c r="A142" s="9">
         <v>35382</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75">
-      <c r="A144">
+    <row r="143" spans="1:3">
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="10"/>
+    </row>
+    <row r="144" spans="1:3" ht="15.6">
+      <c r="A144" s="9">
         <v>47024</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C144" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15.75">
-      <c r="A145">
+      <c r="C144" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.6">
+      <c r="A145" s="9">
         <v>47024</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75">
-      <c r="A146">
+    <row r="146" spans="1:3" ht="15.6">
+      <c r="A146" s="9">
         <v>47024</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75">
-      <c r="A147">
+    <row r="147" spans="1:3" ht="15.6">
+      <c r="A147" s="9">
         <v>47024</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75">
+    <row r="149" spans="1:3" ht="15.6">
       <c r="A149">
         <v>47319</v>
       </c>
@@ -2630,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75">
+    <row r="150" spans="1:3" ht="15.6">
       <c r="A150">
         <v>47319</v>
       </c>
@@ -2641,7 +2683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75">
+    <row r="151" spans="1:3" ht="15.6">
       <c r="A151">
         <v>47319</v>
       </c>
@@ -2652,7 +2694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75">
+    <row r="152" spans="1:3" ht="15.6">
       <c r="A152">
         <v>47319</v>
       </c>
@@ -2663,7 +2705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75">
+    <row r="153" spans="1:3" ht="15.6">
       <c r="A153">
         <v>47319</v>
       </c>
@@ -2718,7 +2760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="42.75">
+    <row r="160" spans="1:3" ht="27.6">
       <c r="A160">
         <v>35171</v>
       </c>
@@ -2729,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="85.5">
+    <row r="161" spans="1:3" ht="82.8">
       <c r="A161">
         <v>35171</v>
       </c>
@@ -2740,7 +2782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="28.5">
+    <row r="162" spans="1:3" ht="27.6">
       <c r="A162">
         <v>35171</v>
       </c>
@@ -2751,7 +2793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="42.75">
+    <row r="163" spans="1:3" ht="41.4">
       <c r="A163">
         <v>35171</v>
       </c>
@@ -2762,7 +2804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75">
+    <row r="165" spans="1:3" ht="15.6">
       <c r="A165" t="s">
         <v>115</v>
       </c>
@@ -2773,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75">
+    <row r="166" spans="1:3" ht="15.6">
       <c r="A166" t="s">
         <v>115</v>
       </c>
@@ -2784,7 +2826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75">
+    <row r="167" spans="1:3" ht="15.6">
       <c r="A167" t="s">
         <v>115</v>
       </c>
@@ -2795,7 +2837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75">
+    <row r="168" spans="1:3" ht="15.6">
       <c r="A168" t="s">
         <v>115</v>
       </c>
@@ -2806,7 +2848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75">
+    <row r="169" spans="1:3" ht="15.6">
       <c r="A169" t="s">
         <v>115</v>
       </c>
@@ -2817,7 +2859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75">
+    <row r="170" spans="1:3" ht="15.6">
       <c r="A170" t="s">
         <v>115</v>
       </c>
@@ -2828,7 +2870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75">
+    <row r="171" spans="1:3" ht="15.6">
       <c r="A171" t="s">
         <v>115</v>
       </c>
@@ -2839,7 +2881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75">
+    <row r="172" spans="1:3" ht="15.6">
       <c r="A172" t="s">
         <v>115</v>
       </c>
@@ -2850,7 +2892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75">
+    <row r="173" spans="1:3" ht="15.6">
       <c r="A173" t="s">
         <v>115</v>
       </c>
@@ -2861,7 +2903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75">
+    <row r="174" spans="1:3" ht="15.6">
       <c r="A174" t="s">
         <v>115</v>
       </c>
@@ -2873,7 +2915,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" ht="15" customHeight="1"/>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" ht="409.6">
       <c r="A176">
         <v>47746</v>
       </c>
@@ -3016,7 +3058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75">
+    <row r="191" spans="1:3" ht="15.6">
       <c r="A191">
         <v>47042</v>
       </c>
@@ -3027,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75">
+    <row r="192" spans="1:3" ht="15.6">
       <c r="A192">
         <v>47042</v>
       </c>
@@ -3038,7 +3080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75">
+    <row r="193" spans="1:3" ht="15.6">
       <c r="A193">
         <v>47042</v>
       </c>
@@ -3049,7 +3091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75">
+    <row r="194" spans="1:3" ht="15.6">
       <c r="A194">
         <v>47042</v>
       </c>
@@ -3060,7 +3102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75">
+    <row r="195" spans="1:3" ht="15.6">
       <c r="A195">
         <v>47042</v>
       </c>
@@ -3071,7 +3113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75">
+    <row r="196" spans="1:3" ht="15.6">
       <c r="A196">
         <v>47042</v>
       </c>
@@ -3082,7 +3124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75">
+    <row r="197" spans="1:3" ht="15.6">
       <c r="A197">
         <v>47042</v>
       </c>
@@ -3151,8 +3193,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/documentation/db_entries.xlsx
+++ b/documentation/db_entries.xlsx
@@ -356,18 +356,6 @@
     <t>room temperature, grated</t>
   </si>
   <si>
-    <t>1. Mix the chicken, hot sauce, mayo, carrot, celery and onion in a small bowl.</t>
-  </si>
-  <si>
-    <t>2. Butter the outside of each slice of bread, sprinkle half of the cheeses on the inside of one slice of bread, top with the buffalo chicken salad, the remaining cheese and finally the other slice of bread.</t>
-  </si>
-  <si>
-    <t>3. Heat a non-stick pan over medium heat.</t>
-  </si>
-  <si>
-    <t>4. Add the sandwich and grill until golden brown and the cheese has melted, about 2-4 minutes per side.</t>
-  </si>
-  <si>
     <t>Cinnamon Rolls</t>
   </si>
   <si>
@@ -494,9 +482,6 @@
     <t>cold</t>
   </si>
   <si>
-    <t>1. Stir together the flour, salt, and instant yeast in a 4-quart bowl (or in the bowl of an electric mixer). With a large metal spoon, stir in the oil and the cold water until the flour is all absorbed (or mix on low speed with the paddle attachment), If you are mixing by hand, repeatedly dip one of your hands or the metal spoon into cold water and use it, much like a dough hook, to work the dough vigorously into a smooth mass while rotating the bowl in a circular motion with the other hand. Reverse the circular motion a few times to develop the gluten further. Do this for 5 to 7 minutes, or until the dough is smooth and the ingredients are evenly distributed. If you are using an electric mixer, switch to the dough hook and mix on medium speed for 5 to 7 minutes, or as long as it takes to create a smooth, sticky dough. The dough should clear the sides of the bowl but stick to the bottom of the bowl. If the dough is too wet and doesn't come off the sides of the bowl, sprinkle in some more flour just until it clears the sides. If it clears the bottom of the bowl, dribble in a tea- spoon or two of cold water. The finished dough will be springy, elastic, and sticky, not just tacky, and register 50 to 55F.</t>
-  </si>
-  <si>
     <t>2. Sprinkle flour on the counter and transfer the dough to the counter. Prepare a sheet pan by lining it with baking parchment and misting the parchment with spray oil (or lightly oil the parchment). Using a metal dough scraper, cut the dough into 6 equal pieces (or larger if you are comfortable shaping large pizzas), You can dip the scraper into the water between cuts to keep the dough from sticking to it, Sprinkle flour over the dough. Make sure your hands are dry and then flour them. Lift each piece and gently round it into a ball. If the dough sticks to your hands, dip your hands into the flour again. Transfer the dough balls to the sheet pan, Mist the dough generously with spray oil and slip the pan into a food-grade plastic bag.</t>
   </si>
   <si>
@@ -672,6 +657,21 @@
   </si>
   <si>
     <t>5. Season with an little dusting of sea salt and extra parmesan cheese and serve.</t>
+  </si>
+  <si>
+    <t>Add the sandwich and grill until golden brown and the cheese has melted, about 2-4 minutes per side.</t>
+  </si>
+  <si>
+    <t>Heat a non-stick pan over medium heat.</t>
+  </si>
+  <si>
+    <t>Butter the outside of each slice of bread, sprinkle half of the cheeses on the inside of one slice of bread, top with the buffalo chicken salad, the remaining cheese and finally the other slice of bread.</t>
+  </si>
+  <si>
+    <t>Mix the chicken, hot sauce, mayo, carrot, celery and onion in a small bowl.</t>
+  </si>
+  <si>
+    <t>Stir together the flour, salt, and instant yeast in a 4-quart bowl (or in the bowl of an electric mixer). With a large metal spoon, stir in the oil and the cold water until the flour is all absorbed (or mix on low speed with the paddle attachment), If you are mixing by hand, repeatedly dip one of your hands or the metal spoon into cold water and use it, much like a dough hook, to work the dough vigorously into a smooth mass while rotating the bowl in a circular motion wi+B156th the other hand. Reverse the circular motion a few times to develop the gluten further. Do this for 5 to 7 minutes, or until the dough is smooth and the ingredients are evenly distributed. If you are using an electric mixer, switch to the dough hook and mix on medium speed for 5 to 7 minutes, or as long as it takes to create a smooth, sticky dough. The dough should clear the sides of the bowl but stick to the bottom of the bowl. If the dough is too wet and doesn't come off the sides of the bowl, sprinkle in some more flour just until it clears the sides. If it clears the bottom of the bowl, dribble in a tea- spoon or two of cold water. The finished dough will be springy, elastic, and sticky, not just tacky, and register 50 to 55F.</t>
   </si>
 </sst>
 </file>
@@ -756,15 +756,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -781,6 +775,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1098,17 +1097,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1124,7 +1123,7 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
@@ -1132,143 +1131,143 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>35382</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>100</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>47024</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>100</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>47319</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>100</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>54384</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>100</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>35171</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>100</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="4">
+        <v>110</v>
+      </c>
+      <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>116</v>
+      <c r="D8" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>47746</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="8">
         <v>100</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>147</v>
+      <c r="D9" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>47899</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="8">
         <v>100</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>166</v>
+      <c r="D10" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>47042</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="8">
         <v>100</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>187</v>
+      <c r="D11" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>713134</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="8">
         <v>100</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>205</v>
+      <c r="D12" s="7" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1283,7 +1282,7 @@
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
@@ -1297,621 +1296,727 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7">
         <v>35382</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>2</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7">
         <v>35382</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>2</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9">
+      <c r="A19" s="7">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7">
         <v>35382</v>
       </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9">
+      <c r="A20" s="7">
+        <v>7</v>
+      </c>
+      <c r="B20" s="7">
         <v>35382</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>2</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9">
+      <c r="A21" s="7">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7">
         <v>35382</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>0.5</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9">
+      <c r="A22" s="7">
+        <v>9</v>
+      </c>
+      <c r="B22" s="7">
         <v>35382</v>
       </c>
-      <c r="C22" s="10">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9">
+      <c r="A24" s="7">
+        <v>0</v>
+      </c>
+      <c r="B24" s="7">
         <v>47024</v>
       </c>
-      <c r="C24" s="10">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9">
+      <c r="A25" s="7">
+        <v>1</v>
+      </c>
+      <c r="B25" s="7">
         <v>47024</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <v>8</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9">
+      <c r="A26" s="7">
+        <v>2</v>
+      </c>
+      <c r="B26" s="7">
         <v>47024</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9">
+      <c r="A27" s="7">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7">
         <v>47024</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="29" spans="1:6" s="7" customFormat="1">
+      <c r="A29" s="7">
+        <v>10</v>
+      </c>
+      <c r="B29" s="7">
         <v>47319</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="8">
         <v>12</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="B30">
+    <row r="30" spans="1:6" s="7" customFormat="1">
+      <c r="A30" s="7">
+        <v>11</v>
+      </c>
+      <c r="B30" s="7">
         <v>47319</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="8">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="B31">
+    <row r="31" spans="1:6" s="7" customFormat="1">
+      <c r="A31" s="7">
+        <v>12</v>
+      </c>
+      <c r="B31" s="7">
         <v>47319</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="B32">
+    <row r="32" spans="1:6" s="7" customFormat="1">
+      <c r="A32" s="7">
+        <v>13</v>
+      </c>
+      <c r="B32" s="7">
         <v>47319</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33">
+    <row r="33" spans="1:6" s="7" customFormat="1">
+      <c r="A33" s="7">
+        <v>14</v>
+      </c>
+      <c r="B33" s="7">
         <v>47319</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35">
+    <row r="34" spans="1:6" s="12" customFormat="1">
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" s="7" customFormat="1">
+      <c r="A35" s="7">
+        <v>15</v>
+      </c>
+      <c r="B35" s="7">
         <v>54384</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="8">
         <v>10</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36">
+    <row r="36" spans="1:6" s="7" customFormat="1">
+      <c r="A36" s="7">
+        <v>16</v>
+      </c>
+      <c r="B36" s="7">
         <v>54384</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="8">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37">
+    <row r="37" spans="1:6" s="7" customFormat="1">
+      <c r="A37" s="7">
+        <v>17</v>
+      </c>
+      <c r="B37" s="7">
         <v>54384</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="8">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
-      <c r="B38">
+    <row r="38" spans="1:6" s="7" customFormat="1">
+      <c r="A38" s="7">
+        <v>18</v>
+      </c>
+      <c r="B38" s="7">
         <v>54384</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="8">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="B39">
+    <row r="39" spans="1:6" s="7" customFormat="1">
+      <c r="A39" s="7">
+        <v>19</v>
+      </c>
+      <c r="B39" s="7">
         <v>54384</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40">
+    <row r="40" spans="1:6" s="7" customFormat="1">
+      <c r="A40" s="7">
+        <v>20</v>
+      </c>
+      <c r="B40" s="7">
         <v>54384</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
-      <c r="B41">
+    <row r="41" spans="1:6" s="7" customFormat="1">
+      <c r="A41" s="7">
+        <v>6</v>
+      </c>
+      <c r="B41" s="7">
         <v>54384</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="8">
         <v>2</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
-      <c r="B42">
+    <row r="42" spans="1:6" s="7" customFormat="1">
+      <c r="A42" s="7">
+        <v>21</v>
+      </c>
+      <c r="B42" s="7">
         <v>54384</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="8">
         <v>2</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
-      <c r="B43">
+    <row r="43" spans="1:6" s="7" customFormat="1">
+      <c r="A43" s="7">
+        <v>22</v>
+      </c>
+      <c r="B43" s="7">
         <v>54384</v>
       </c>
-      <c r="C43" s="4">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
-      <c r="B44">
+    <row r="44" spans="1:6" s="7" customFormat="1">
+      <c r="A44" s="7">
+        <v>23</v>
+      </c>
+      <c r="B44" s="7">
         <v>54384</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="8">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
-      <c r="B45">
+    <row r="45" spans="1:6" s="7" customFormat="1">
+      <c r="A45" s="7">
+        <v>17</v>
+      </c>
+      <c r="B45" s="7">
         <v>54384</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
-      <c r="B47">
+    <row r="47" spans="1:6" s="7" customFormat="1">
+      <c r="A47" s="7">
+        <v>24</v>
+      </c>
+      <c r="B47" s="7">
         <v>35171</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="8">
         <v>0.25</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
-      <c r="B48">
+    <row r="48" spans="1:6" s="7" customFormat="1">
+      <c r="A48" s="7">
+        <v>25</v>
+      </c>
+      <c r="B48" s="7">
         <v>35171</v>
       </c>
-      <c r="C48" s="4">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C48" s="8">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
-      <c r="B49">
+    <row r="49" spans="1:6" s="7" customFormat="1">
+      <c r="A49" s="7">
+        <v>26</v>
+      </c>
+      <c r="B49" s="7">
         <v>35171</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="8">
         <v>0.5</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
-      <c r="B50">
+    <row r="50" spans="1:6" s="7" customFormat="1">
+      <c r="A50" s="7">
+        <v>27</v>
+      </c>
+      <c r="B50" s="7">
         <v>35171</v>
       </c>
-      <c r="C50" s="4">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C50" s="8">
+        <v>1</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
-      <c r="B51">
+    <row r="51" spans="1:6" s="7" customFormat="1">
+      <c r="A51" s="7">
+        <v>28</v>
+      </c>
+      <c r="B51" s="7">
         <v>35171</v>
       </c>
-      <c r="C51" s="4">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
-      <c r="B52">
+    <row r="52" spans="1:6" s="7" customFormat="1">
+      <c r="A52" s="7">
+        <v>29</v>
+      </c>
+      <c r="B52" s="7">
         <v>35171</v>
       </c>
-      <c r="C52" s="4">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C52" s="8">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
-      <c r="B53">
+    <row r="53" spans="1:6" s="7" customFormat="1">
+      <c r="A53" s="7">
+        <v>30</v>
+      </c>
+      <c r="B53" s="7">
         <v>35171</v>
       </c>
-      <c r="C53" s="4">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53" s="8">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
-      <c r="B54">
+    <row r="54" spans="1:6" s="7" customFormat="1">
+      <c r="A54" s="7">
+        <v>8</v>
+      </c>
+      <c r="B54" s="7">
         <v>35171</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="8">
         <v>0.5</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
-      <c r="B55">
+    <row r="55" spans="1:6" s="7" customFormat="1">
+      <c r="A55" s="7">
+        <v>31</v>
+      </c>
+      <c r="B55" s="7">
         <v>35171</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="8">
         <v>2</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
-      <c r="B56">
+    <row r="56" spans="1:6" s="7" customFormat="1">
+      <c r="A56" s="7">
+        <v>6</v>
+      </c>
+      <c r="B56" s="7">
         <v>35171</v>
       </c>
-      <c r="C56" s="4">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" s="8">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="1:6">
       <c r="B58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="4">
+        <v>111</v>
+      </c>
+      <c r="C58" s="2">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="B59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="4">
+        <v>111</v>
+      </c>
+      <c r="C59" s="2">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="1:6">
       <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
         <v>115</v>
-      </c>
-      <c r="C60" s="4">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>119</v>
       </c>
       <c r="E60" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="1:6">
       <c r="B61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="4">
+        <v>111</v>
+      </c>
+      <c r="C61" s="2">
         <v>0.5</v>
       </c>
       <c r="D61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="B62" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="4">
+        <v>111</v>
+      </c>
+      <c r="C62" s="2">
         <v>8</v>
       </c>
       <c r="D62" t="s">
@@ -1921,43 +2026,43 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="1:6">
       <c r="B63" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="4">
+        <v>111</v>
+      </c>
+      <c r="C63" s="2">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="B64" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="4">
+        <v>111</v>
+      </c>
+      <c r="C64" s="2">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" t="s">
-        <v>115</v>
-      </c>
-      <c r="C65" s="4">
+        <v>111</v>
+      </c>
+      <c r="C65" s="2">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
@@ -1965,24 +2070,24 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" t="s">
         <v>129</v>
-      </c>
-      <c r="E66" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
         <v>115</v>
-      </c>
-      <c r="C67" s="4">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s">
-        <v>119</v>
       </c>
       <c r="E67" t="s">
         <v>85</v>
@@ -1990,56 +2095,56 @@
     </row>
     <row r="68" spans="2:6">
       <c r="B68" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E68" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="4">
+        <v>111</v>
+      </c>
+      <c r="C70" s="2">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" s="4">
+        <v>111</v>
+      </c>
+      <c r="C71" s="2">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E71" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="4">
+        <v>111</v>
+      </c>
+      <c r="C72" s="2">
         <v>0.5</v>
       </c>
       <c r="D72" t="s">
@@ -2051,13 +2156,13 @@
     </row>
     <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="4">
+        <v>111</v>
+      </c>
+      <c r="C73" s="2">
         <v>0.25</v>
       </c>
       <c r="D73" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E73" t="s">
         <v>27</v>
@@ -2065,13 +2170,13 @@
     </row>
     <row r="74" spans="2:6">
       <c r="B74" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="4">
+        <v>111</v>
+      </c>
+      <c r="C74" s="2">
         <v>0.25</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
         <v>27</v>
@@ -2079,24 +2184,24 @@
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>115</v>
-      </c>
-      <c r="C75" s="4">
+        <v>111</v>
+      </c>
+      <c r="C75" s="2">
         <v>0.125</v>
       </c>
       <c r="D75" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="2:6">
       <c r="B77">
         <v>47746</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>149</v>
+      <c r="C77" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D77" t="s">
         <v>77</v>
@@ -2109,35 +2214,35 @@
       <c r="B78">
         <v>47746</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>150</v>
+      <c r="C78" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="D78" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E78" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="2:6">
       <c r="B79">
         <v>47746</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="2">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="2:6">
       <c r="B80">
         <v>47746</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="2">
         <v>0.25</v>
       </c>
       <c r="D80" t="s">
@@ -2154,17 +2259,17 @@
       <c r="B81">
         <v>47746</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>150</v>
+      <c r="C81" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E81" t="s">
         <v>85</v>
       </c>
       <c r="F81" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="2:6">
@@ -2172,21 +2277,21 @@
         <v>47746</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="2:6">
       <c r="B84">
         <v>47899</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="2">
         <v>0.5</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E84" t="s">
         <v>27</v>
@@ -2196,84 +2301,84 @@
       <c r="B85">
         <v>47899</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="2">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E85" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="2:6">
       <c r="B86">
         <v>47899</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="2">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E86" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="2:6">
       <c r="B87">
         <v>47899</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="2">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="2:6">
       <c r="B88">
         <v>47899</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="2">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E88" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="2:6">
       <c r="B89">
         <v>47899</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="2">
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="2:6">
       <c r="B90">
         <v>47899</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="2">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="2:6">
@@ -2281,38 +2386,38 @@
         <v>47899</v>
       </c>
       <c r="D91" t="s">
+        <v>168</v>
+      </c>
+      <c r="E91" t="s">
         <v>173</v>
-      </c>
-      <c r="E91" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="92" spans="2:6">
       <c r="B92">
         <v>47899</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="2">
         <v>0.25</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F92" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="2:6">
       <c r="B93">
         <v>47899</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="2">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E93" t="s">
         <v>26</v>
@@ -2322,11 +2427,11 @@
       <c r="B95">
         <v>47042</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="2">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E95" t="s">
         <v>57</v>
@@ -2336,56 +2441,56 @@
       <c r="B96">
         <v>47042</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="2">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E96" t="s">
         <v>57</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="2:6">
       <c r="B97">
         <v>47042</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="2">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E97" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="2:6">
       <c r="B98">
         <v>47042</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="2">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="2:6">
       <c r="B99">
         <v>47042</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="2">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E99" t="s">
         <v>84</v>
@@ -2396,18 +2501,18 @@
         <v>47042</v>
       </c>
       <c r="D100" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="2:6">
       <c r="B102">
         <v>713134</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="2">
         <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E102" t="s">
         <v>85</v>
@@ -2417,11 +2522,11 @@
       <c r="B103">
         <v>713134</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="2">
         <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E103" t="s">
         <v>84</v>
@@ -2431,67 +2536,67 @@
       <c r="B104">
         <v>713134</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="2">
         <v>0.5</v>
       </c>
       <c r="D104" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="2:6">
       <c r="B105">
         <v>713134</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="2">
         <v>0.5</v>
       </c>
       <c r="D105" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E105" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="2:6">
       <c r="B106">
         <v>713134</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="2">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E106" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="2:6">
       <c r="B107">
         <v>713134</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="2">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E107" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="2:6">
       <c r="B108">
         <v>713134</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="2">
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E108" t="s">
         <v>84</v>
@@ -2512,7 +2617,7 @@
       <c r="B121" t="s">
         <v>6</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" t="s">
@@ -2531,386 +2636,386 @@
       <c r="B135" t="s">
         <v>14</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="27.6">
-      <c r="A136" s="9">
+      <c r="A136" s="7">
         <v>35382</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C136" s="10">
+      <c r="C136" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="55.2">
-      <c r="A137" s="9">
+      <c r="A137" s="7">
         <v>35382</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C137" s="10">
+      <c r="C137" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="55.2">
-      <c r="A138" s="9">
+      <c r="A138" s="7">
         <v>35382</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C138" s="10">
+      <c r="C138" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="27.6">
-      <c r="A139" s="9">
+      <c r="A139" s="7">
         <v>35382</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C139" s="10">
+      <c r="C139" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="96.6">
-      <c r="A140" s="9">
+      <c r="A140" s="7">
         <v>35382</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C140" s="10">
+      <c r="C140" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="27.6">
-      <c r="A141" s="9">
+      <c r="A141" s="7">
         <v>35382</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C141" s="10">
+      <c r="C141" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="41.4">
-      <c r="A142" s="9">
+      <c r="A142" s="7">
         <v>35382</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C142" s="10">
+      <c r="C142" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="10"/>
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="8"/>
     </row>
     <row r="144" spans="1:3" ht="15.6">
-      <c r="A144" s="9">
+      <c r="A144" s="7">
         <v>47024</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B144" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C144" s="10">
+      <c r="C144" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.6">
-      <c r="A145" s="9">
+      <c r="A145" s="7">
         <v>47024</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="B145" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C145" s="10">
+      <c r="C145" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.6">
-      <c r="A146" s="9">
+      <c r="A146" s="7">
         <v>47024</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C146" s="10">
+      <c r="C146" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.6">
-      <c r="A147" s="9">
+      <c r="A147" s="7">
         <v>47024</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C147" s="10">
+      <c r="C147" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.6">
-      <c r="A149">
+    <row r="149" spans="1:3" s="7" customFormat="1" ht="15.6">
+      <c r="A149" s="7">
         <v>47319</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C149" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="15.6">
-      <c r="A150">
+      <c r="C149" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" s="7" customFormat="1" ht="15.6">
+      <c r="A150" s="7">
         <v>47319</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.6">
-      <c r="A151">
+    <row r="151" spans="1:3" s="7" customFormat="1" ht="15.6">
+      <c r="A151" s="7">
         <v>47319</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.6">
-      <c r="A152">
+    <row r="152" spans="1:3" s="7" customFormat="1" ht="15.6">
+      <c r="A152" s="7">
         <v>47319</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.6">
-      <c r="A153">
+    <row r="153" spans="1:3" s="7" customFormat="1" ht="15.6">
+      <c r="A153" s="7">
         <v>47319</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A155">
+    <row r="155" spans="1:3" s="7" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A155" s="7">
         <v>54384</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C155" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A156">
+      <c r="C155" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="7" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A156" s="7">
         <v>54384</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A157">
+    <row r="157" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A157" s="7">
         <v>54384</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A158">
+    <row r="158" spans="1:3" s="7" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A158" s="7">
         <v>54384</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="27.6">
-      <c r="A160">
+    <row r="160" spans="1:3" s="7" customFormat="1" ht="41.4">
+      <c r="A160" s="7">
         <v>35171</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C160" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="82.8">
-      <c r="A161">
+      <c r="B160" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C160" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="7" customFormat="1" ht="82.8">
+      <c r="A161" s="7">
         <v>35171</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C161" s="4">
+      <c r="B161" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C161" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="27.6">
-      <c r="A162">
+    <row r="162" spans="1:3" s="7" customFormat="1" ht="27.6">
+      <c r="A162" s="7">
         <v>35171</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C162" s="4">
+      <c r="B162" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C162" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="41.4">
-      <c r="A163">
+    <row r="163" spans="1:3" s="7" customFormat="1" ht="41.4">
+      <c r="A163" s="7">
         <v>35171</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C163" s="4">
+      <c r="B163" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C163" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.6">
       <c r="A165" t="s">
-        <v>115</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C165" s="4">
+        <v>111</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C165" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15.6">
       <c r="A166" t="s">
-        <v>115</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C166" s="4">
+        <v>111</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C166" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15.6">
       <c r="A167" t="s">
-        <v>115</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C167" s="4">
+        <v>111</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C167" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15.6">
       <c r="A168" t="s">
-        <v>115</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C168" s="4">
+        <v>111</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C168" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.6">
       <c r="A169" t="s">
-        <v>115</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C169" s="4">
+        <v>111</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C169" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15.6">
       <c r="A170" t="s">
-        <v>115</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C170" s="4">
+        <v>111</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C170" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15.6">
       <c r="A171" t="s">
-        <v>115</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C171" s="4">
+        <v>111</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C171" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15.6">
       <c r="A172" t="s">
-        <v>115</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C172" s="4">
+        <v>111</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C172" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.6">
       <c r="A173" t="s">
-        <v>115</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C173" s="4">
+        <v>111</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C173" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15.6">
       <c r="A174" t="s">
-        <v>115</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C174" s="4">
+        <v>111</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C174" s="2">
         <v>10</v>
       </c>
     </row>
@@ -2919,10 +3024,10 @@
       <c r="A176">
         <v>47746</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C176" s="4">
+      <c r="B176" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C176" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2930,10 +3035,10 @@
       <c r="A177">
         <v>47746</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C177" s="4">
+      <c r="B177" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C177" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2941,10 +3046,10 @@
       <c r="A178">
         <v>47746</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C178" s="4">
+      <c r="B178" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C178" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2952,10 +3057,10 @@
       <c r="A179">
         <v>47746</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C179" s="4">
+      <c r="B179" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C179" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2963,10 +3068,10 @@
       <c r="A180">
         <v>47746</v>
       </c>
-      <c r="B180" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C180" s="4">
+      <c r="B180" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C180" s="2">
         <v>5</v>
       </c>
     </row>
@@ -2974,10 +3079,10 @@
       <c r="A181">
         <v>47746</v>
       </c>
-      <c r="B181" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C181" s="4">
+      <c r="B181" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C181" s="2">
         <v>6</v>
       </c>
     </row>
@@ -2985,10 +3090,10 @@
       <c r="A182">
         <v>47746</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C182" s="4">
+      <c r="B182" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C182" s="2">
         <v>7</v>
       </c>
     </row>
@@ -2996,10 +3101,10 @@
       <c r="A183">
         <v>47746</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C183" s="4">
+      <c r="B183" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C183" s="2">
         <v>8</v>
       </c>
     </row>
@@ -3007,10 +3112,10 @@
       <c r="A184">
         <v>47746</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C184" s="4">
+      <c r="B184" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C184" s="2">
         <v>9</v>
       </c>
     </row>
@@ -3018,10 +3123,10 @@
       <c r="A186">
         <v>47899</v>
       </c>
-      <c r="B186" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C186" s="4">
+      <c r="B186" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C186" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3029,10 +3134,10 @@
       <c r="A187">
         <v>47899</v>
       </c>
-      <c r="B187" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C187" s="4">
+      <c r="B187" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C187" s="2">
         <v>2</v>
       </c>
     </row>
@@ -3040,10 +3145,10 @@
       <c r="A188">
         <v>47899</v>
       </c>
-      <c r="B188" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C188" s="4">
+      <c r="B188" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C188" s="2">
         <v>3</v>
       </c>
     </row>
@@ -3051,10 +3156,10 @@
       <c r="A189">
         <v>47899</v>
       </c>
-      <c r="B189" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C189" s="4">
+      <c r="B189" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C189" s="2">
         <v>4</v>
       </c>
     </row>
@@ -3062,10 +3167,10 @@
       <c r="A191">
         <v>47042</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C191" s="4">
+      <c r="B191" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C191" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3073,10 +3178,10 @@
       <c r="A192">
         <v>47042</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C192" s="4">
+      <c r="B192" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C192" s="2">
         <v>2</v>
       </c>
     </row>
@@ -3084,10 +3189,10 @@
       <c r="A193">
         <v>47042</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C193" s="4">
+      <c r="B193" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C193" s="2">
         <v>3</v>
       </c>
     </row>
@@ -3095,10 +3200,10 @@
       <c r="A194">
         <v>47042</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C194" s="4">
+      <c r="B194" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C194" s="2">
         <v>4</v>
       </c>
     </row>
@@ -3106,10 +3211,10 @@
       <c r="A195">
         <v>47042</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C195" s="4">
+      <c r="B195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C195" s="2">
         <v>5</v>
       </c>
     </row>
@@ -3117,10 +3222,10 @@
       <c r="A196">
         <v>47042</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C196" s="4">
+      <c r="B196" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C196" s="2">
         <v>6</v>
       </c>
     </row>
@@ -3128,10 +3233,10 @@
       <c r="A197">
         <v>47042</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C197" s="4">
+      <c r="B197" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C197" s="2">
         <v>7</v>
       </c>
     </row>
@@ -3139,10 +3244,10 @@
       <c r="A199">
         <v>713134</v>
       </c>
-      <c r="B199" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C199" s="4">
+      <c r="B199" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C199" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3150,10 +3255,10 @@
       <c r="A200">
         <v>713134</v>
       </c>
-      <c r="B200" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C200" s="4">
+      <c r="B200" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C200" s="2">
         <v>2</v>
       </c>
     </row>
@@ -3161,10 +3266,10 @@
       <c r="A201">
         <v>713134</v>
       </c>
-      <c r="B201" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C201" s="4">
+      <c r="B201" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C201" s="2">
         <v>3</v>
       </c>
     </row>
@@ -3172,10 +3277,10 @@
       <c r="A202">
         <v>713134</v>
       </c>
-      <c r="B202" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C202" s="4">
+      <c r="B202" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C202" s="2">
         <v>4</v>
       </c>
     </row>
@@ -3183,10 +3288,10 @@
       <c r="A203">
         <v>713134</v>
       </c>
-      <c r="B203" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C203" s="4">
+      <c r="B203" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C203" s="2">
         <v>5</v>
       </c>
     </row>

--- a/documentation/db_entries.xlsx
+++ b/documentation/db_entries.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="215">
   <si>
     <t>recipe</t>
   </si>
@@ -482,30 +482,6 @@
     <t>cold</t>
   </si>
   <si>
-    <t>2. Sprinkle flour on the counter and transfer the dough to the counter. Prepare a sheet pan by lining it with baking parchment and misting the parchment with spray oil (or lightly oil the parchment). Using a metal dough scraper, cut the dough into 6 equal pieces (or larger if you are comfortable shaping large pizzas), You can dip the scraper into the water between cuts to keep the dough from sticking to it, Sprinkle flour over the dough. Make sure your hands are dry and then flour them. Lift each piece and gently round it into a ball. If the dough sticks to your hands, dip your hands into the flour again. Transfer the dough balls to the sheet pan, Mist the dough generously with spray oil and slip the pan into a food-grade plastic bag.</t>
-  </si>
-  <si>
-    <t>3. Put the pan into the refrigerator overnight to rest the dough, or keep for up to 3 days. (Note: If you want to save some of the dough for future baking, you can store the dough balls in a zippered freezer bag. Dip each dough ball into a bowl that has a few tablespoons of oil in it, rolling the dough in the oil, and then put each ball into a separate bag. You can place the bags into the freezer for up to 3 months. Transfer them to the refrigerator the day before you plan to make pizza.)</t>
-  </si>
-  <si>
-    <t>4. On the day you plan to make the pizza, remove the desired number of dough balls from the refrigerator 2 hours before making the pizza. Before letting the dough rest at room temperature for 2 hours, dust the counter with flour, and then mist the counter with spray oil. Place the dough balls on top of the floured counter and sprinkle them with flour; dust your hands with flour. Gently press the dough into flat disks about 1/2 inch thick and 5 inches in diameter. Sprinkle the dough with flour, mist it again with spray oil, and cover the dough loosely with plastic wrap or a food-grade plastic bag. Now let rest for 2 hours.</t>
-  </si>
-  <si>
-    <t>5. At least 45 minutes before making the pizza, place a baking stone either on the floor of the oven (for gas ovens), or on a rack in the lower third of the oven. Heat the oven as hot as possible, up to 800F (most home ovens will go only to 500 to 550F, but some will go higher). If you do not have a baking stone, you can use the back of a sheet pan, but do not preheat the pan.</t>
-  </si>
-  <si>
-    <t>6. Generously dust a peel or the back of a sheet pan with semolina flour or cornmeal. Make the pizzas one at a time. Dip your hands, including the backs of your hands and knuckles, in flour and lift I piece of dough by getting under it with a pastry scraper. Very gently lay the dough across your fists and carefully stretch it by bouncing the dough in a circular motion on your hands, carefully giving it a little stretch with each bounce. If it begins to stick to your hands, lay it down on the floured counter and reflour your hands, then continue shaping it. Once the dough has expanded outward, move to a full toss as shown on page 208. If you have trouble tossing the dough, or if the dough keeps springing back, let it rest for 5 to 20 minutes so the gluten can relax, and try again. You can also resort to using a rolling pin, though this isn't as effective as the toss method.</t>
-  </si>
-  <si>
-    <t>7. When the dough is stretched out to your satisfaction (about 9 to 12 inches in diameter for a 6-ounce piece of dough), lay it on the peel or pan, making sure there is enough semolina flour or cornmeal to allow it to slide. Lightly top it with sauce and then with your other top- pings, remembering that the best pizzas are topped with a less-is-more philosophy. The American "kitchen sink" approach is counterproductive, as it makes the crust more difficult to bake. A few, usually no more than 3 or 4 toppings, including sauce and cheese is sufficient.</t>
-  </si>
-  <si>
-    <t>8. Slide the topped pizza onto the stone (or bake directly on the sheet pan) and close the door. Wait 2 minutes, then take a peek. If it needs to be rotated 180 degrees for even baking, do so. The pizza should take about 5 to 8 minutes to bake. If the top gets done before the bottom, you will need to move the stone to a lower self before the next round. if the bottom crisps before the cheese caramelizes, then you will need to raise the stone for subsequent bakes.</t>
-  </si>
-  <si>
-    <t>9. Remove the pizza from the oven and transfer to a cutting board. Wait 3 to 5 minutes before slicing and serving, to allow the cheese to set slightly</t>
-  </si>
-  <si>
     <t>Magic Sauce</t>
   </si>
   <si>
@@ -644,21 +620,6 @@
     <t>parmeshan cheese</t>
   </si>
   <si>
-    <t>1. Preheat your oven to 425 degrees.</t>
-  </si>
-  <si>
-    <t>2. Place the cubed potatoes onto a sprayed baking sheet or parchment lined baking dish dish.</t>
-  </si>
-  <si>
-    <t>3. Pile on the olive oil, garlic salt, salt, paprika, pepper and Parmesan cheese. Using your fingers, or a spoon if you feel inclined, toss the potatoes and carefully mix everything around until the seasonings coat each potato.</t>
-  </si>
-  <si>
-    <t>4. Transfer the baking vessel into the oven and bake for 15 minutes. Remove from the oven and toss the potatoes with a pair of tongs. Put the baking dish back into the oven and bake for 10 minutes more. Remove the baking sheet and give them another toss and place them back in the oven and roast until they are golden and crispy.</t>
-  </si>
-  <si>
-    <t>5. Season with an little dusting of sea salt and extra parmesan cheese and serve.</t>
-  </si>
-  <si>
     <t>Add the sandwich and grill until golden brown and the cheese has melted, about 2-4 minutes per side.</t>
   </si>
   <si>
@@ -671,7 +632,43 @@
     <t>Mix the chicken, hot sauce, mayo, carrot, celery and onion in a small bowl.</t>
   </si>
   <si>
-    <t>Stir together the flour, salt, and instant yeast in a 4-quart bowl (or in the bowl of an electric mixer). With a large metal spoon, stir in the oil and the cold water until the flour is all absorbed (or mix on low speed with the paddle attachment), If you are mixing by hand, repeatedly dip one of your hands or the metal spoon into cold water and use it, much like a dough hook, to work the dough vigorously into a smooth mass while rotating the bowl in a circular motion wi+B156th the other hand. Reverse the circular motion a few times to develop the gluten further. Do this for 5 to 7 minutes, or until the dough is smooth and the ingredients are evenly distributed. If you are using an electric mixer, switch to the dough hook and mix on medium speed for 5 to 7 minutes, or as long as it takes to create a smooth, sticky dough. The dough should clear the sides of the bowl but stick to the bottom of the bowl. If the dough is too wet and doesn't come off the sides of the bowl, sprinkle in some more flour just until it clears the sides. If it clears the bottom of the bowl, dribble in a tea- spoon or two of cold water. The finished dough will be springy, elastic, and sticky, not just tacky, and register 50 to 55F.</t>
+    <t>Preheat your oven to 425 degrees.</t>
+  </si>
+  <si>
+    <t>Place the cubed potatoes onto a sprayed baking sheet or parchment lined baking dish dish.</t>
+  </si>
+  <si>
+    <t>Pile on the olive oil, garlic salt, salt, paprika, pepper and Parmesan cheese. Using your fingers, or a spoon if you feel inclined, toss the potatoes and carefully mix everything around until the seasonings coat each potato.</t>
+  </si>
+  <si>
+    <t>Transfer the baking vessel into the oven and bake for 15 minutes. Remove from the oven and toss the potatoes with a pair of tongs. Put the baking dish back into the oven and bake for 10 minutes more. Remove the baking sheet and give them another toss and place them back in the oven and roast until they are golden and crispy.</t>
+  </si>
+  <si>
+    <t>Season with an little dusting of sea salt and extra parmesan cheese and serve.</t>
+  </si>
+  <si>
+    <t>Sprinkle flour on the counter and transfer the dough to the counter. Prepare a sheet pan by lining it with baking parchment and misting the parchment with spray oil (or lightly oil the parchment). Using a metal dough scraper, cut the dough into 6 equal pieces (or larger if you are comfortable shaping large pizzas), You can dip the scraper into the water between cuts to keep the dough from sticking to it, Sprinkle flour over the dough. Make sure your hands are dry and then flour them. Lift each piece and gently round it into a ball. If the dough sticks to your hands, dip your hands into the flour again. Transfer the dough balls to the sheet pan, Mist the dough generously with spray oil and slip the pan into a food-grade plastic bag.</t>
+  </si>
+  <si>
+    <t>Put the pan into the refrigerator overnight to rest the dough, or keep for up to 3 days. (Note: If you want to save some of the dough for future baking, you can store the dough balls in a zippered freezer bag. Dip each dough ball into a bowl that has a few tablespoons of oil in it, rolling the dough in the oil, and then put each ball into a separate bag. You can place the bags into the freezer for up to 3 months. Transfer them to the refrigerator the day before you plan to make pizza.)</t>
+  </si>
+  <si>
+    <t>On the day you plan to make the pizza, remove the desired number of dough balls from the refrigerator 2 hours before making the pizza. Before letting the dough rest at room temperature for 2 hours, dust the counter with flour, and then mist the counter with spray oil. Place the dough balls on top of the floured counter and sprinkle them with flour; dust your hands with flour. Gently press the dough into flat disks about 1/2 inch thick and 5 inches in diameter. Sprinkle the dough with flour, mist it again with spray oil, and cover the dough loosely with plastic wrap or a food-grade plastic bag. Now let rest for 2 hours.</t>
+  </si>
+  <si>
+    <t>At least 45 minutes before making the pizza, place a baking stone either on the floor of the oven (for gas ovens), or on a rack in the lower third of the oven. Heat the oven as hot as possible, up to 800F (most home ovens will go only to 500 to 550F, but some will go higher). If you do not have a baking stone, you can use the back of a sheet pan, but do not preheat the pan.</t>
+  </si>
+  <si>
+    <t>Generously dust a peel or the back of a sheet pan with semolina flour or cornmeal. Make the pizzas one at a time. Dip your hands, including the backs of your hands and knuckles, in flour and lift I piece of dough by getting under it with a pastry scraper. Very gently lay the dough across your fists and carefully stretch it by bouncing the dough in a circular motion on your hands, carefully giving it a little stretch with each bounce. If it begins to stick to your hands, lay it down on the floured counter and reflour your hands, then continue shaping it. Once the dough has expanded outward, move to a full toss as shown on page 208. If you have trouble tossing the dough, or if the dough keeps springing back, let it rest for 5 to 20 minutes so the gluten can relax, and try again. You can also resort to using a rolling pin, though this isn't as effective as the toss method.</t>
+  </si>
+  <si>
+    <t>When the dough is stretched out to your satisfaction (about 9 to 12 inches in diameter for a 6-ounce piece of dough), lay it on the peel or pan, making sure there is enough semolina flour or cornmeal to allow it to slide. Lightly top it with sauce and then with your other top- pings, remembering that the best pizzas are topped with a less-is-more philosophy. The American "kitchen sink" approach is counterproductive, as it makes the crust more difficult to bake. A few, usually no more than 3 or 4 toppings, including sauce and cheese is sufficient.</t>
+  </si>
+  <si>
+    <t>Slide the topped pizza onto the stone (or bake directly on the sheet pan) and close the door. Wait 2 minutes, then take a peek. If it needs to be rotated 180 degrees for even baking, do so. The pizza should take about 5 to 8 minutes to bake. If the top gets done before the bottom, you will need to move the stone to a lower self before the next round. if the bottom crisps before the cheese caramelizes, then you will need to raise the stone for subsequent bakes.</t>
+  </si>
+  <si>
+    <t>Remove the pizza from the oven and transfer to a cutting board. Wait 3 to 5 minutes before slicing and serving, to allow the cheese to set slightly</t>
   </si>
 </sst>
 </file>
@@ -761,13 +758,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -778,6 +768,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1097,14 +1094,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
@@ -1131,72 +1128,72 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>35382</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>100</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>47024</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>100</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>47319</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>100</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>54384</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>100</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>35171</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>100</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1215,59 +1212,59 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>47746</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>100</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>47899</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="5">
         <v>100</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>161</v>
+      <c r="D10" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>47042</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="5">
         <v>100</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>182</v>
+      <c r="D11" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>713134</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="5">
         <v>100</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>200</v>
+      <c r="D12" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1296,663 +1293,663 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7">
+      <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="4">
         <v>35382</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="4">
         <v>35382</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <v>2</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="7">
+      <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="4">
         <v>35382</v>
       </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="7">
+      <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="4">
         <v>35382</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <v>2</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7">
+      <c r="A21" s="4">
         <v>8</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="4">
         <v>35382</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <v>0.5</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="7">
+      <c r="A22" s="4">
         <v>9</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="4">
         <v>35382</v>
       </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="7">
+      <c r="A24" s="4">
         <v>0</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="4">
         <v>47024</v>
       </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="7">
-        <v>1</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
         <v>47024</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <v>8</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="7">
+      <c r="A26" s="4">
         <v>2</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="4">
         <v>47024</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7">
+      <c r="A27" s="4">
         <v>3</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="4">
         <v>47024</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="29" spans="1:6" s="7" customFormat="1">
-      <c r="A29" s="7">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1">
+      <c r="A29" s="4">
         <v>10</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="4">
         <v>47319</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="5">
         <v>12</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1">
-      <c r="A30" s="7">
+    <row r="30" spans="1:6" s="4" customFormat="1">
+      <c r="A30" s="4">
         <v>11</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="4">
         <v>47319</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="5">
         <v>3</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1">
-      <c r="A31" s="7">
+    <row r="31" spans="1:6" s="4" customFormat="1">
+      <c r="A31" s="4">
         <v>12</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="4">
         <v>47319</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1">
-      <c r="A32" s="7">
+    <row r="32" spans="1:6" s="4" customFormat="1">
+      <c r="A32" s="4">
         <v>13</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="4">
         <v>47319</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1">
-      <c r="A33" s="7">
+    <row r="33" spans="1:6" s="4" customFormat="1">
+      <c r="A33" s="4">
         <v>14</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="4">
         <v>47319</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="12" customFormat="1">
-      <c r="C34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" s="7" customFormat="1">
-      <c r="A35" s="7">
+    <row r="34" spans="1:6" s="9" customFormat="1">
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" s="4" customFormat="1">
+      <c r="A35" s="4">
         <v>15</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="4">
         <v>54384</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="5">
         <v>10</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1">
-      <c r="A36" s="7">
+    <row r="36" spans="1:6" s="4" customFormat="1">
+      <c r="A36" s="4">
         <v>16</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="4">
         <v>54384</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="5">
         <v>2</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="7" customFormat="1">
-      <c r="A37" s="7">
+    <row r="37" spans="1:6" s="4" customFormat="1">
+      <c r="A37" s="4">
         <v>17</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="4">
         <v>54384</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="5">
         <v>2</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="7" customFormat="1">
-      <c r="A38" s="7">
+    <row r="38" spans="1:6" s="4" customFormat="1">
+      <c r="A38" s="4">
         <v>18</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="4">
         <v>54384</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="5">
         <v>2</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="7" customFormat="1">
-      <c r="A39" s="7">
+    <row r="39" spans="1:6" s="4" customFormat="1">
+      <c r="A39" s="4">
         <v>19</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="4">
         <v>54384</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1">
-      <c r="A40" s="7">
+    <row r="40" spans="1:6" s="4" customFormat="1">
+      <c r="A40" s="4">
         <v>20</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="4">
         <v>54384</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1">
-      <c r="A41" s="7">
+    <row r="41" spans="1:6" s="4" customFormat="1">
+      <c r="A41" s="4">
         <v>6</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="4">
         <v>54384</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="5">
         <v>2</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1">
-      <c r="A42" s="7">
+    <row r="42" spans="1:6" s="4" customFormat="1">
+      <c r="A42" s="4">
         <v>21</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="4">
         <v>54384</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="5">
         <v>2</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="7" customFormat="1">
-      <c r="A43" s="7">
+    <row r="43" spans="1:6" s="4" customFormat="1">
+      <c r="A43" s="4">
         <v>22</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="4">
         <v>54384</v>
       </c>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="7" customFormat="1">
-      <c r="A44" s="7">
+    <row r="44" spans="1:6" s="4" customFormat="1">
+      <c r="A44" s="4">
         <v>23</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="4">
         <v>54384</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="5">
         <v>2</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="7" customFormat="1">
-      <c r="A45" s="7">
+    <row r="45" spans="1:6" s="4" customFormat="1">
+      <c r="A45" s="4">
         <v>17</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="4">
         <v>54384</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="7" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="7" customFormat="1">
-      <c r="A47" s="7">
+    <row r="47" spans="1:6" s="4" customFormat="1">
+      <c r="A47" s="4">
         <v>24</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="4">
         <v>35171</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="5">
         <v>0.25</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="7" customFormat="1">
-      <c r="A48" s="7">
+    <row r="48" spans="1:6" s="4" customFormat="1">
+      <c r="A48" s="4">
         <v>25</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="4">
         <v>35171</v>
       </c>
-      <c r="C48" s="8">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="7" customFormat="1">
-      <c r="A49" s="7">
+    <row r="49" spans="1:6" s="4" customFormat="1">
+      <c r="A49" s="4">
         <v>26</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="4">
         <v>35171</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="5">
         <v>0.5</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="7" customFormat="1">
-      <c r="A50" s="7">
+    <row r="50" spans="1:6" s="4" customFormat="1">
+      <c r="A50" s="4">
         <v>27</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="4">
         <v>35171</v>
       </c>
-      <c r="C50" s="8">
-        <v>1</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="7" customFormat="1">
-      <c r="A51" s="7">
+    <row r="51" spans="1:6" s="4" customFormat="1">
+      <c r="A51" s="4">
         <v>28</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="4">
         <v>35171</v>
       </c>
-      <c r="C51" s="8">
-        <v>1</v>
-      </c>
-      <c r="D51" s="7" t="s">
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="7" customFormat="1">
-      <c r="A52" s="7">
+    <row r="52" spans="1:6" s="4" customFormat="1">
+      <c r="A52" s="4">
         <v>29</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="4">
         <v>35171</v>
       </c>
-      <c r="C52" s="8">
-        <v>1</v>
-      </c>
-      <c r="D52" s="7" t="s">
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="7" customFormat="1">
-      <c r="A53" s="7">
+    <row r="53" spans="1:6" s="4" customFormat="1">
+      <c r="A53" s="4">
         <v>30</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="4">
         <v>35171</v>
       </c>
-      <c r="C53" s="8">
-        <v>1</v>
-      </c>
-      <c r="D53" s="7" t="s">
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="7" customFormat="1">
-      <c r="A54" s="7">
+    <row r="54" spans="1:6" s="4" customFormat="1">
+      <c r="A54" s="4">
         <v>8</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="4">
         <v>35171</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="5">
         <v>0.5</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="7" customFormat="1">
-      <c r="A55" s="7">
+    <row r="55" spans="1:6" s="4" customFormat="1">
+      <c r="A55" s="4">
         <v>31</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="4">
         <v>35171</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="5">
         <v>2</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="7" customFormat="1">
-      <c r="A56" s="7">
+    <row r="56" spans="1:6" s="4" customFormat="1">
+      <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="4">
         <v>35171</v>
       </c>
-      <c r="C56" s="8">
-        <v>1</v>
-      </c>
-      <c r="D56" s="7" t="s">
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2013,6 +2010,9 @@
       </c>
     </row>
     <row r="62" spans="1:6">
+      <c r="A62">
+        <v>21</v>
+      </c>
       <c r="B62" t="s">
         <v>111</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="1:6">
       <c r="B65" t="s">
         <v>111</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="1:6">
       <c r="B66" t="s">
         <v>111</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="1:6">
       <c r="B67" t="s">
         <v>111</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="1:6">
       <c r="B68" t="s">
         <v>111</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="1:6">
       <c r="B69" t="s">
         <v>111</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="1:6">
       <c r="B70" t="s">
         <v>111</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="1:6">
       <c r="B71" t="s">
         <v>111</v>
       </c>
@@ -2140,7 +2140,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>22</v>
+      </c>
       <c r="B72" t="s">
         <v>111</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="1:6">
       <c r="B73" t="s">
         <v>111</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="1:6">
       <c r="B74" t="s">
         <v>111</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="1:6">
       <c r="B75" t="s">
         <v>111</v>
       </c>
@@ -2196,412 +2199,463 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="2:6">
-      <c r="B77">
+    <row r="77" spans="1:6" s="4" customFormat="1">
+      <c r="A77" s="4">
+        <v>21</v>
+      </c>
+      <c r="B77" s="4">
         <v>47746</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="2:6">
-      <c r="B78">
+    <row r="78" spans="1:6" s="4" customFormat="1">
+      <c r="A78" s="4">
+        <v>32</v>
+      </c>
+      <c r="B78" s="4">
         <v>47746</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="2:6">
-      <c r="B79">
+    <row r="79" spans="1:6" s="4" customFormat="1">
+      <c r="A79" s="4">
+        <v>33</v>
+      </c>
+      <c r="B79" s="4">
         <v>47746</v>
       </c>
-      <c r="C79" s="2">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="2:6">
-      <c r="B80">
+    <row r="80" spans="1:6" s="4" customFormat="1">
+      <c r="A80" s="4">
+        <v>11</v>
+      </c>
+      <c r="B80" s="4">
         <v>47746</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="5">
         <v>0.25</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="2:6">
-      <c r="B81">
+    <row r="81" spans="1:6" s="4" customFormat="1">
+      <c r="A81" s="4">
+        <v>1</v>
+      </c>
+      <c r="B81" s="4">
         <v>47746</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="2:6">
-      <c r="B82">
+    <row r="82" spans="1:6" s="4" customFormat="1">
+      <c r="A82" s="4">
+        <v>35</v>
+      </c>
+      <c r="B82" s="4">
         <v>47746</v>
       </c>
-      <c r="D82" t="s">
+      <c r="C82" s="5"/>
+      <c r="D82" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="2:6">
-      <c r="B84">
+    <row r="84" spans="1:6" s="4" customFormat="1">
+      <c r="A84" s="4">
+        <v>11</v>
+      </c>
+      <c r="B84" s="4">
         <v>47899</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="5">
         <v>0.5</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="4" customFormat="1">
+      <c r="A85" s="4">
+        <v>14</v>
+      </c>
+      <c r="B85" s="4">
+        <v>47899</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="4" customFormat="1">
+      <c r="A86" s="4">
+        <v>36</v>
+      </c>
+      <c r="B86" s="4">
+        <v>47899</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="4" customFormat="1">
+      <c r="A87" s="4">
+        <v>37</v>
+      </c>
+      <c r="B87" s="4">
+        <v>47899</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="4" customFormat="1">
+      <c r="A88" s="4">
+        <v>38</v>
+      </c>
+      <c r="B88" s="4">
+        <v>47899</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="4" customFormat="1">
+      <c r="A89" s="4">
+        <v>16</v>
+      </c>
+      <c r="B89" s="4">
+        <v>47899</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="4" customFormat="1">
+      <c r="A90" s="4">
+        <v>39</v>
+      </c>
+      <c r="B90" s="4">
+        <v>47899</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="4" customFormat="1">
+      <c r="A91" s="4">
+        <v>40</v>
+      </c>
+      <c r="B91" s="4">
+        <v>47899</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="4" customFormat="1">
+      <c r="A92" s="4">
+        <v>41</v>
+      </c>
+      <c r="B92" s="4">
+        <v>47899</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="4" customFormat="1">
+      <c r="A93" s="4">
+        <v>42</v>
+      </c>
+      <c r="B93" s="4">
+        <v>47899</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85">
-        <v>47899</v>
-      </c>
-      <c r="C85" s="2">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>163</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="E93" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="4" customFormat="1">
+      <c r="B95" s="4">
+        <v>47042</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="4" customFormat="1">
+      <c r="B96" s="4">
+        <v>47042</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" s="4" customFormat="1">
+      <c r="B97" s="4">
+        <v>47042</v>
+      </c>
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" s="4" customFormat="1">
+      <c r="B98" s="4">
+        <v>47042</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" s="4" customFormat="1">
+      <c r="B99" s="4">
+        <v>47042</v>
+      </c>
+      <c r="C99" s="5">
+        <v>2</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" s="4" customFormat="1" ht="13.8" customHeight="1">
+      <c r="B100" s="4">
+        <v>47042</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" s="4" customFormat="1">
+      <c r="B102" s="4">
+        <v>713134</v>
+      </c>
+      <c r="C102" s="5">
+        <v>4</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" s="4" customFormat="1">
+      <c r="B103" s="4">
+        <v>713134</v>
+      </c>
+      <c r="C103" s="5">
+        <v>3</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" s="4" customFormat="1">
+      <c r="B104" s="4">
+        <v>713134</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="2:6">
-      <c r="B86">
-        <v>47899</v>
-      </c>
-      <c r="C86" s="2">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>164</v>
-      </c>
-      <c r="E86" t="s">
+    <row r="105" spans="2:6" s="4" customFormat="1">
+      <c r="B105" s="4">
+        <v>713134</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="2:6">
-      <c r="B87">
-        <v>47899</v>
-      </c>
-      <c r="C87" s="2">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>165</v>
-      </c>
-      <c r="E87" t="s">
+    <row r="106" spans="2:6" s="4" customFormat="1">
+      <c r="B106" s="4">
+        <v>713134</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="2:6">
-      <c r="B88">
-        <v>47899</v>
-      </c>
-      <c r="C88" s="2">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s">
-        <v>174</v>
-      </c>
-      <c r="E88" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89">
-        <v>47899</v>
-      </c>
-      <c r="C89" s="2">
-        <v>2</v>
-      </c>
-      <c r="D89" t="s">
-        <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="B90">
-        <v>47899</v>
-      </c>
-      <c r="C90" s="2">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>167</v>
-      </c>
-      <c r="F90" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="B91">
-        <v>47899</v>
-      </c>
-      <c r="D91" t="s">
-        <v>168</v>
-      </c>
-      <c r="E91" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92">
-        <v>47899</v>
-      </c>
-      <c r="C92" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D92" t="s">
-        <v>169</v>
-      </c>
-      <c r="E92" t="s">
+    <row r="107" spans="2:6" s="4" customFormat="1">
+      <c r="B107" s="4">
+        <v>713134</v>
+      </c>
+      <c r="C107" s="5">
+        <v>1</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F92" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93">
-        <v>47899</v>
-      </c>
-      <c r="C93" s="2">
-        <v>1</v>
-      </c>
-      <c r="D93" t="s">
-        <v>170</v>
-      </c>
-      <c r="E93" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95">
-        <v>47042</v>
-      </c>
-      <c r="C95" s="2">
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>183</v>
-      </c>
-      <c r="E95" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96">
-        <v>47042</v>
-      </c>
-      <c r="C96" s="2">
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>184</v>
-      </c>
-      <c r="E96" t="s">
-        <v>57</v>
-      </c>
-      <c r="F96" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97">
-        <v>47042</v>
-      </c>
-      <c r="C97" s="2">
-        <v>1</v>
-      </c>
-      <c r="D97" t="s">
-        <v>187</v>
-      </c>
-      <c r="E97" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98">
-        <v>47042</v>
-      </c>
-      <c r="C98" s="2">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>190</v>
-      </c>
-      <c r="E98" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99">
-        <v>47042</v>
-      </c>
-      <c r="C99" s="2">
-        <v>2</v>
-      </c>
-      <c r="D99" t="s">
-        <v>189</v>
-      </c>
-      <c r="E99" t="s">
+    </row>
+    <row r="108" spans="2:6" s="4" customFormat="1">
+      <c r="B108" s="4">
+        <v>713134</v>
+      </c>
+      <c r="C108" s="5">
+        <v>4</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="B100">
-        <v>47042</v>
-      </c>
-      <c r="D100" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6">
-      <c r="B102">
-        <v>713134</v>
-      </c>
-      <c r="C102" s="2">
-        <v>4</v>
-      </c>
-      <c r="D102" t="s">
-        <v>201</v>
-      </c>
-      <c r="E102" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="B103">
-        <v>713134</v>
-      </c>
-      <c r="C103" s="2">
-        <v>3</v>
-      </c>
-      <c r="D103" t="s">
-        <v>202</v>
-      </c>
-      <c r="E103" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6">
-      <c r="B104">
-        <v>713134</v>
-      </c>
-      <c r="C104" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D104" t="s">
-        <v>203</v>
-      </c>
-      <c r="E104" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6">
-      <c r="B105">
-        <v>713134</v>
-      </c>
-      <c r="C105" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D105" t="s">
-        <v>120</v>
-      </c>
-      <c r="E105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="B106">
-        <v>713134</v>
-      </c>
-      <c r="C106" s="2">
-        <v>2</v>
-      </c>
-      <c r="D106" t="s">
-        <v>166</v>
-      </c>
-      <c r="E106" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107">
-        <v>713134</v>
-      </c>
-      <c r="C107" s="2">
-        <v>1</v>
-      </c>
-      <c r="D107" t="s">
-        <v>204</v>
-      </c>
-      <c r="E107" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6">
-      <c r="B108">
-        <v>713134</v>
-      </c>
-      <c r="C108" s="2">
-        <v>4</v>
-      </c>
-      <c r="D108" t="s">
-        <v>205</v>
-      </c>
-      <c r="E108" t="s">
-        <v>84</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="F108" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2640,272 +2694,272 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="27.6">
-      <c r="A136" s="7">
+    <row r="136" spans="1:3" ht="124.2">
+      <c r="A136" s="4">
         <v>35382</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C136" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="55.2">
-      <c r="A137" s="7">
+      <c r="C136" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="220.8">
+      <c r="A137" s="4">
         <v>35382</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C137" s="8">
+      <c r="C137" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="55.2">
-      <c r="A138" s="7">
+    <row r="138" spans="1:3" ht="220.8">
+      <c r="A138" s="4">
         <v>35382</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="27.6">
-      <c r="A139" s="7">
+    <row r="139" spans="1:3" ht="124.2">
+      <c r="A139" s="4">
         <v>35382</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="96.6">
-      <c r="A140" s="7">
+    <row r="140" spans="1:3" ht="400.2">
+      <c r="A140" s="4">
         <v>35382</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C140" s="8">
+      <c r="C140" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="27.6">
-      <c r="A141" s="7">
+    <row r="141" spans="1:3" ht="69">
+      <c r="A141" s="4">
         <v>35382</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C141" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="41.4">
-      <c r="A142" s="7">
+    <row r="142" spans="1:3" ht="165.6">
+      <c r="A142" s="4">
         <v>35382</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C142" s="8">
+      <c r="C142" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="8"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
     </row>
     <row r="144" spans="1:3" ht="15.6">
-      <c r="A144" s="7">
+      <c r="A144" s="4">
         <v>47024</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C144" s="8">
+      <c r="C144" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.6">
-      <c r="A145" s="7">
+      <c r="A145" s="4">
         <v>47024</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C145" s="8">
+      <c r="C145" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.6">
-      <c r="A146" s="7">
+      <c r="A146" s="4">
         <v>47024</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C146" s="8">
+      <c r="C146" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.6">
-      <c r="A147" s="7">
+      <c r="A147" s="4">
         <v>47024</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="7" customFormat="1" ht="15.6">
-      <c r="A149" s="7">
+    <row r="149" spans="1:3" s="4" customFormat="1" ht="15.6">
+      <c r="A149" s="4">
         <v>47319</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C149" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" s="7" customFormat="1" ht="15.6">
-      <c r="A150" s="7">
+      <c r="C149" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" s="4" customFormat="1" ht="15.6">
+      <c r="A150" s="4">
         <v>47319</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C150" s="8">
+      <c r="C150" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="7" customFormat="1" ht="15.6">
-      <c r="A151" s="7">
+    <row r="151" spans="1:3" s="4" customFormat="1" ht="15.6">
+      <c r="A151" s="4">
         <v>47319</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C151" s="8">
+      <c r="C151" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" s="7" customFormat="1" ht="15.6">
-      <c r="A152" s="7">
+    <row r="152" spans="1:3" s="4" customFormat="1" ht="15.6">
+      <c r="A152" s="4">
         <v>47319</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C152" s="8">
+      <c r="C152" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" s="7" customFormat="1" ht="15.6">
-      <c r="A153" s="7">
+    <row r="153" spans="1:3" s="4" customFormat="1" ht="15.6">
+      <c r="A153" s="4">
         <v>47319</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C153" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A155" s="7">
+    <row r="155" spans="1:3" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A155" s="4">
         <v>54384</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C155" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A156" s="7">
+      <c r="C155" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A156" s="4">
         <v>54384</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C156" s="8">
+      <c r="C156" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A157" s="7">
+    <row r="157" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A157" s="4">
         <v>54384</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C157" s="8">
+      <c r="C157" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A158" s="7">
+    <row r="158" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A158" s="4">
         <v>54384</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C158" s="8">
+      <c r="C158" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" s="7" customFormat="1" ht="41.4">
-      <c r="A160" s="7">
+    <row r="160" spans="1:3" s="4" customFormat="1" ht="124.2">
+      <c r="A160" s="4">
         <v>35171</v>
       </c>
-      <c r="B160" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C160" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" s="7" customFormat="1" ht="82.8">
-      <c r="A161" s="7">
+      <c r="B160" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C160" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="4" customFormat="1" ht="303.60000000000002">
+      <c r="A161" s="4">
         <v>35171</v>
       </c>
-      <c r="B161" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C161" s="8">
+      <c r="B161" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C161" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="7" customFormat="1" ht="27.6">
-      <c r="A162" s="7">
+    <row r="162" spans="1:3" s="4" customFormat="1" ht="69">
+      <c r="A162" s="4">
         <v>35171</v>
       </c>
-      <c r="B162" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C162" s="8">
+      <c r="B162" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C162" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="7" customFormat="1" ht="41.4">
-      <c r="A163" s="7">
+    <row r="163" spans="1:3" s="4" customFormat="1" ht="165.6">
+      <c r="A163" s="4">
         <v>35171</v>
       </c>
-      <c r="B163" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C163" s="8">
+      <c r="B163" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C163" s="5">
         <v>4</v>
       </c>
     </row>
@@ -3020,278 +3074,276 @@
       </c>
     </row>
     <row r="175" spans="1:3" ht="15" customHeight="1"/>
-    <row r="176" spans="1:3" ht="409.6">
-      <c r="A176">
+    <row r="176" spans="1:3" s="4" customFormat="1">
+      <c r="A176" s="4">
         <v>47746</v>
       </c>
-      <c r="B176" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C176" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A177">
+      <c r="B176" s="12"/>
+      <c r="C176" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A177" s="4">
         <v>47746</v>
       </c>
-      <c r="B177" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C177" s="2">
+      <c r="B177" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C177" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A178">
+    <row r="178" spans="1:3" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A178" s="4">
         <v>47746</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C178" s="2">
+      <c r="B178" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C178" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A179">
+    <row r="179" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A179" s="4">
         <v>47746</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C179" s="2">
+      <c r="B179" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C179" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A180">
+    <row r="180" spans="1:3" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A180" s="4">
         <v>47746</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C180" s="2">
+      <c r="B180" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C180" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A181">
+    <row r="181" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A181" s="4">
         <v>47746</v>
       </c>
-      <c r="B181" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C181" s="2">
+      <c r="B181" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C181" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A182">
+    <row r="182" spans="1:3" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A182" s="4">
         <v>47746</v>
       </c>
-      <c r="B182" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C182" s="2">
+      <c r="B182" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C182" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A183">
+    <row r="183" spans="1:3" s="4" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A183" s="4">
         <v>47746</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C183" s="2">
+      <c r="B183" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C183" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A184">
+    <row r="184" spans="1:3" s="4" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A184" s="4">
         <v>47746</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C184" s="2">
+      <c r="B184" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C184" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
-      <c r="A186">
+    <row r="186" spans="1:3" s="4" customFormat="1">
+      <c r="A186" s="4">
         <v>47899</v>
       </c>
-      <c r="B186" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C186" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187">
+      <c r="B186" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C186" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="4" customFormat="1">
+      <c r="A187" s="4">
         <v>47899</v>
       </c>
-      <c r="B187" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C187" s="2">
+      <c r="B187" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C187" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188">
+    <row r="188" spans="1:3" s="4" customFormat="1">
+      <c r="A188" s="4">
         <v>47899</v>
       </c>
-      <c r="B188" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C188" s="2">
+      <c r="B188" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C188" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="A189">
+    <row r="189" spans="1:3" s="4" customFormat="1">
+      <c r="A189" s="4">
         <v>47899</v>
       </c>
-      <c r="B189" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C189" s="2">
+      <c r="B189" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C189" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.6">
-      <c r="A191">
+    <row r="191" spans="1:3" s="4" customFormat="1" ht="15.6">
+      <c r="A191" s="4">
         <v>47042</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C191" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="15.6">
-      <c r="A192">
+      <c r="B191" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C191" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" s="4" customFormat="1" ht="15.6">
+      <c r="A192" s="4">
         <v>47042</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C192" s="2">
+      <c r="B192" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C192" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.6">
-      <c r="A193">
+    <row r="193" spans="1:3" s="4" customFormat="1" ht="15.6">
+      <c r="A193" s="4">
         <v>47042</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C193" s="2">
+      <c r="B193" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C193" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.6">
-      <c r="A194">
+    <row r="194" spans="1:3" s="4" customFormat="1" ht="15.6">
+      <c r="A194" s="4">
         <v>47042</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C194" s="2">
+      <c r="B194" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C194" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.6">
-      <c r="A195">
+    <row r="195" spans="1:3" s="4" customFormat="1" ht="15.6">
+      <c r="A195" s="4">
         <v>47042</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C195" s="2">
+      <c r="B195" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C195" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.6">
-      <c r="A196">
+    <row r="196" spans="1:3" s="4" customFormat="1" ht="15.6">
+      <c r="A196" s="4">
         <v>47042</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C196" s="2">
+      <c r="B196" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C196" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.6">
-      <c r="A197">
+    <row r="197" spans="1:3" s="4" customFormat="1" ht="15.6">
+      <c r="A197" s="4">
         <v>47042</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C197" s="2">
+      <c r="B197" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C197" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="A199">
+    <row r="199" spans="1:3" s="4" customFormat="1" ht="27.6">
+      <c r="A199" s="4">
         <v>713134</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C199" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A200" s="4">
+        <v>713134</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C200" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A201" s="4">
+        <v>713134</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C201" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A202" s="4">
+        <v>713134</v>
+      </c>
+      <c r="B202" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C202" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A203" s="4">
+        <v>713134</v>
+      </c>
+      <c r="B203" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C199" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A200">
-        <v>713134</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C200" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A201">
-        <v>713134</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C201" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A202">
-        <v>713134</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C202" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A203">
-        <v>713134</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C203" s="2">
+      <c r="C203" s="5">
         <v>5</v>
       </c>
     </row>
